--- a/Sonstiges/Standards/CCSS-Math.xlsx
+++ b/Sonstiges/Standards/CCSS-Math.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\07 Dokumente\Duales Studium\DHBW\5. Semester\00 Studienarbeit\NoRPG-docs\Sonstiges\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="23715" windowHeight="10035" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="23715" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="318">
   <si>
     <t>CCSS.Math.Content.1.OA.A.1</t>
   </si>
@@ -1325,11 +1320,80 @@
   <si>
     <t>CCSS.Math.Content</t>
   </si>
+  <si>
+    <t>OA.B.3</t>
+  </si>
+  <si>
+    <t>OA.A.2</t>
+  </si>
+  <si>
+    <t>OA.A.1</t>
+  </si>
+  <si>
+    <t>OA</t>
+  </si>
+  <si>
+    <t>1. Grade</t>
+  </si>
+  <si>
+    <t>2. Grade</t>
+  </si>
+  <si>
+    <t>3. Grade</t>
+  </si>
+  <si>
+    <t>OA.B.4</t>
+  </si>
+  <si>
+    <t>OA.C.5</t>
+  </si>
+  <si>
+    <t>OA.C.6</t>
+  </si>
+  <si>
+    <t>OA.D.7</t>
+  </si>
+  <si>
+    <t>OA.D.8</t>
+  </si>
+  <si>
+    <t>OA.B.2</t>
+  </si>
+  <si>
+    <t>OA.C.3</t>
+  </si>
+  <si>
+    <t>OA.C.4</t>
+  </si>
+  <si>
+    <t>OA.A.3</t>
+  </si>
+  <si>
+    <t>OA.A.4</t>
+  </si>
+  <si>
+    <t>OA.B.5</t>
+  </si>
+  <si>
+    <t>OA.B.6</t>
+  </si>
+  <si>
+    <t>OA.C.7</t>
+  </si>
+  <si>
+    <t>OA.D.9</t>
+  </si>
+  <si>
+    <t>4. Grade</t>
+  </si>
+  <si>
+    <t>5. Grade</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1812,51 +1876,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1877,9 +1896,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5802,9 +5866,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5842,9 +5906,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5877,26 +5941,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5929,26 +5976,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6124,14 +6154,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V131"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A24"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
     <col min="4" max="4" width="100" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="15" max="15" width="20.85546875" bestFit="1" customWidth="1"/>
@@ -6159,105 +6189,105 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+      <c r="A4" s="31">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="25" t="s">
         <v>129</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
+      <c r="E4" s="35"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="37"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="19"/>
+      <c r="E11" s="38"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="25" t="s">
         <v>130</v>
       </c>
       <c r="D12" s="16" t="s">
@@ -6266,149 +6296,149 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="21"/>
+      <c r="E14" s="36"/>
     </row>
     <row r="15" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="23"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="18"/>
+      <c r="E16" s="39"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="24"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="E17" s="19"/>
+      <c r="E17" s="38"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="25" t="s">
         <v>131</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="E18" s="20"/>
+      <c r="E18" s="35"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="23"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="21"/>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="23"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="24"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="15" t="s">
         <v>152</v>
       </c>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="25" t="s">
         <v>132</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="E22" s="20"/>
+      <c r="E22" s="35"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="23"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E23" s="18"/>
+      <c r="E23" s="39"/>
     </row>
     <row r="24" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="24"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E24" s="19"/>
+      <c r="E24" s="38"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
+      <c r="A25" s="31">
         <v>2</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="28" t="s">
         <v>129</v>
       </c>
       <c r="D25" s="9" t="s">
@@ -6417,1094 +6447,1094 @@
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="30"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="1" t="s">
         <v>157</v>
       </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="30"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E27" s="17"/>
+      <c r="E27" s="37"/>
     </row>
     <row r="28" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="31"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="E28" s="19"/>
+      <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="28" t="s">
         <v>130</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="E29" s="20"/>
+      <c r="E29" s="35"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="30"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E30" s="18"/>
+      <c r="E30" s="39"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="30"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="18"/>
+      <c r="E31" s="39"/>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="30"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E32" s="21"/>
+      <c r="E32" s="36"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="30"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E33" s="17"/>
+      <c r="E33" s="37"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="30"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E34" s="18"/>
+      <c r="E34" s="39"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="30"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E35" s="18"/>
+      <c r="E35" s="39"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="30"/>
+      <c r="C36" s="29"/>
       <c r="D36" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="E36" s="18"/>
+      <c r="E36" s="39"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="26"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="31"/>
+      <c r="C37" s="30"/>
       <c r="D37" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E37" s="19"/>
+      <c r="E37" s="38"/>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="25" t="s">
         <v>131</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="E38" s="20"/>
+      <c r="E38" s="35"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
+      <c r="A39" s="32"/>
       <c r="B39" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="23"/>
+      <c r="C39" s="26"/>
       <c r="D39" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E39" s="18"/>
+      <c r="E39" s="39"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="23"/>
+      <c r="C40" s="26"/>
       <c r="D40" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E40" s="18"/>
+      <c r="E40" s="39"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="23"/>
+      <c r="C41" s="26"/>
       <c r="D41" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E41" s="21"/>
+      <c r="E41" s="36"/>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="23"/>
+      <c r="C42" s="26"/>
       <c r="D42" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E42" s="17"/>
+      <c r="E42" s="37"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="23"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E43" s="21"/>
+      <c r="E43" s="36"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="23"/>
+      <c r="C44" s="26"/>
       <c r="D44" s="1" t="s">
         <v>174</v>
       </c>
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="23"/>
+      <c r="C45" s="26"/>
       <c r="D45" s="1" t="s">
         <v>175</v>
       </c>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="23"/>
+      <c r="C46" s="26"/>
       <c r="D46" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E46" s="17"/>
+      <c r="E46" s="37"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="26"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="24"/>
+      <c r="C47" s="27"/>
       <c r="D47" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="E47" s="19"/>
+      <c r="E47" s="38"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="25" t="s">
         <v>132</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="E48" s="20"/>
+      <c r="E48" s="35"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
+      <c r="A49" s="32"/>
       <c r="B49" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="23"/>
+      <c r="C49" s="26"/>
       <c r="D49" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E49" s="18"/>
+      <c r="E49" s="39"/>
     </row>
     <row r="50" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="27"/>
+      <c r="A50" s="33"/>
       <c r="B50" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="24"/>
+      <c r="C50" s="27"/>
       <c r="D50" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E50" s="19"/>
+      <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="25">
+      <c r="A51" s="31">
         <v>3</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="25" t="s">
         <v>129</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="E51" s="20"/>
+      <c r="E51" s="35"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
+      <c r="A52" s="32"/>
       <c r="B52" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="23"/>
+      <c r="C52" s="26"/>
       <c r="D52" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E52" s="18"/>
+      <c r="E52" s="39"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
+      <c r="A53" s="32"/>
       <c r="B53" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="23"/>
+      <c r="C53" s="26"/>
       <c r="D53" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E53" s="18"/>
+      <c r="E53" s="39"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
+      <c r="A54" s="32"/>
       <c r="B54" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="23"/>
+      <c r="C54" s="26"/>
       <c r="D54" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E54" s="21"/>
+      <c r="E54" s="36"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
+      <c r="A55" s="32"/>
       <c r="B55" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="23"/>
+      <c r="C55" s="26"/>
       <c r="D55" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E55" s="17"/>
+      <c r="E55" s="37"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
+      <c r="A56" s="32"/>
       <c r="B56" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="23"/>
+      <c r="C56" s="26"/>
       <c r="D56" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E56" s="21"/>
+      <c r="E56" s="36"/>
     </row>
     <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
+      <c r="A57" s="32"/>
       <c r="B57" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="23"/>
+      <c r="C57" s="26"/>
       <c r="D57" s="1" t="s">
         <v>187</v>
       </c>
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
+      <c r="A58" s="32"/>
       <c r="B58" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="23"/>
+      <c r="C58" s="26"/>
       <c r="D58" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E58" s="17"/>
+      <c r="E58" s="37"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="26"/>
+      <c r="A59" s="32"/>
       <c r="B59" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="24"/>
+      <c r="C59" s="27"/>
       <c r="D59" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="19"/>
+      <c r="E59" s="38"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
+      <c r="A60" s="32"/>
       <c r="B60" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="25" t="s">
         <v>130</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E60" s="20"/>
+      <c r="E60" s="35"/>
     </row>
     <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
+      <c r="A61" s="32"/>
       <c r="B61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="23"/>
+      <c r="C61" s="26"/>
       <c r="D61" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E61" s="18"/>
+      <c r="E61" s="39"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="26"/>
+      <c r="A62" s="32"/>
       <c r="B62" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="24"/>
+      <c r="C62" s="27"/>
       <c r="D62" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="E62" s="19"/>
+      <c r="E62" s="38"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="26"/>
+      <c r="A63" s="32"/>
       <c r="B63" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="25" t="s">
         <v>133</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="E63" s="20"/>
+      <c r="E63" s="35"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="26"/>
+      <c r="A64" s="32"/>
       <c r="B64" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="23"/>
+      <c r="C64" s="26"/>
       <c r="D64" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E64" s="18"/>
+      <c r="E64" s="39"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="26"/>
+      <c r="A65" s="32"/>
       <c r="B65" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="24"/>
+      <c r="C65" s="27"/>
       <c r="D65" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E65" s="19"/>
+      <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
+      <c r="A66" s="32"/>
       <c r="B66" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="25" t="s">
         <v>131</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="E66" s="20"/>
+      <c r="E66" s="35"/>
     </row>
     <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="26"/>
+      <c r="A67" s="32"/>
       <c r="B67" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="23"/>
+      <c r="C67" s="26"/>
       <c r="D67" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E67" s="21"/>
+      <c r="E67" s="36"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
+      <c r="A68" s="32"/>
       <c r="B68" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C68" s="23"/>
+      <c r="C68" s="26"/>
       <c r="D68" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E68" s="17"/>
+      <c r="E68" s="37"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
+      <c r="A69" s="32"/>
       <c r="B69" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C69" s="23"/>
+      <c r="C69" s="26"/>
       <c r="D69" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E69" s="21"/>
+      <c r="E69" s="36"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="26"/>
+      <c r="A70" s="32"/>
       <c r="B70" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C70" s="23"/>
+      <c r="C70" s="26"/>
       <c r="D70" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E70" s="17"/>
+      <c r="E70" s="37"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="26"/>
+      <c r="A71" s="32"/>
       <c r="B71" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C71" s="23"/>
+      <c r="C71" s="26"/>
       <c r="D71" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E71" s="18"/>
+      <c r="E71" s="39"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
+      <c r="A72" s="32"/>
       <c r="B72" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="23"/>
+      <c r="C72" s="26"/>
       <c r="D72" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E72" s="21"/>
+      <c r="E72" s="36"/>
     </row>
     <row r="73" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="26"/>
+      <c r="A73" s="32"/>
       <c r="B73" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C73" s="24"/>
+      <c r="C73" s="27"/>
       <c r="D73" s="15" t="s">
         <v>203</v>
       </c>
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="26"/>
+      <c r="A74" s="32"/>
       <c r="B74" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="25" t="s">
         <v>132</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="E74" s="20"/>
+      <c r="E74" s="35"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="27"/>
+      <c r="A75" s="33"/>
       <c r="B75" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C75" s="24"/>
+      <c r="C75" s="27"/>
       <c r="D75" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="E75" s="19"/>
+      <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="25">
+      <c r="A76" s="31">
         <v>4</v>
       </c>
       <c r="B76" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="25" t="s">
         <v>129</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="E76" s="20"/>
+      <c r="E76" s="35"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
+      <c r="A77" s="32"/>
       <c r="B77" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C77" s="23"/>
+      <c r="C77" s="26"/>
       <c r="D77" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E77" s="18"/>
+      <c r="E77" s="39"/>
     </row>
     <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="26"/>
+      <c r="A78" s="32"/>
       <c r="B78" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C78" s="23"/>
+      <c r="C78" s="26"/>
       <c r="D78" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E78" s="21"/>
+      <c r="E78" s="36"/>
     </row>
     <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="26"/>
+      <c r="A79" s="32"/>
       <c r="B79" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C79" s="23"/>
+      <c r="C79" s="26"/>
       <c r="D79" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E79" s="3"/>
     </row>
     <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="26"/>
+      <c r="A80" s="32"/>
       <c r="B80" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C80" s="24"/>
+      <c r="C80" s="27"/>
       <c r="D80" s="15" t="s">
         <v>210</v>
       </c>
       <c r="E80" s="4"/>
     </row>
     <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
+      <c r="A81" s="32"/>
       <c r="B81" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="22" t="s">
+      <c r="C81" s="25" t="s">
         <v>130</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="E81" s="20"/>
+      <c r="E81" s="35"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="26"/>
+      <c r="A82" s="32"/>
       <c r="B82" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="23"/>
+      <c r="C82" s="26"/>
       <c r="D82" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E82" s="18"/>
+      <c r="E82" s="39"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="26"/>
+      <c r="A83" s="32"/>
       <c r="B83" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="23"/>
+      <c r="C83" s="26"/>
       <c r="D83" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E83" s="21"/>
+      <c r="E83" s="36"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="26"/>
+      <c r="A84" s="32"/>
       <c r="B84" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C84" s="23"/>
+      <c r="C84" s="26"/>
       <c r="D84" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E84" s="17"/>
+      <c r="E84" s="37"/>
     </row>
     <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="26"/>
+      <c r="A85" s="32"/>
       <c r="B85" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C85" s="23"/>
+      <c r="C85" s="26"/>
       <c r="D85" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E85" s="18"/>
+      <c r="E85" s="39"/>
     </row>
     <row r="86" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="26"/>
+      <c r="A86" s="32"/>
       <c r="B86" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C86" s="24"/>
+      <c r="C86" s="27"/>
       <c r="D86" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E86" s="19"/>
+      <c r="E86" s="38"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="26"/>
+      <c r="A87" s="32"/>
       <c r="B87" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="C87" s="25" t="s">
         <v>133</v>
       </c>
       <c r="D87" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="E87" s="20"/>
+      <c r="E87" s="35"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="26"/>
+      <c r="A88" s="32"/>
       <c r="B88" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C88" s="23"/>
+      <c r="C88" s="26"/>
       <c r="D88" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E88" s="21"/>
+      <c r="E88" s="36"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="26"/>
+      <c r="A89" s="32"/>
       <c r="B89" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C89" s="23"/>
+      <c r="C89" s="26"/>
       <c r="D89" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E89" s="17"/>
+      <c r="E89" s="37"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="26"/>
+      <c r="A90" s="32"/>
       <c r="B90" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C90" s="23"/>
+      <c r="C90" s="26"/>
       <c r="D90" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E90" s="21"/>
+      <c r="E90" s="36"/>
     </row>
     <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="26"/>
+      <c r="A91" s="32"/>
       <c r="B91" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C91" s="23"/>
+      <c r="C91" s="26"/>
       <c r="D91" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E91" s="17"/>
+      <c r="E91" s="37"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="26"/>
+      <c r="A92" s="32"/>
       <c r="B92" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C92" s="23"/>
+      <c r="C92" s="26"/>
       <c r="D92" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E92" s="18"/>
+      <c r="E92" s="39"/>
     </row>
     <row r="93" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="26"/>
+      <c r="A93" s="32"/>
       <c r="B93" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C93" s="24"/>
+      <c r="C93" s="27"/>
       <c r="D93" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="E93" s="19"/>
+      <c r="E93" s="38"/>
     </row>
     <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="26"/>
+      <c r="A94" s="32"/>
       <c r="B94" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C94" s="22" t="s">
+      <c r="C94" s="25" t="s">
         <v>131</v>
       </c>
       <c r="D94" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="E94" s="20"/>
+      <c r="E94" s="35"/>
     </row>
     <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="26"/>
+      <c r="A95" s="32"/>
       <c r="B95" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C95" s="23"/>
+      <c r="C95" s="26"/>
       <c r="D95" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E95" s="18"/>
+      <c r="E95" s="39"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="26"/>
+      <c r="A96" s="32"/>
       <c r="B96" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C96" s="23"/>
+      <c r="C96" s="26"/>
       <c r="D96" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E96" s="21"/>
+      <c r="E96" s="36"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="26"/>
+      <c r="A97" s="32"/>
       <c r="B97" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C97" s="23"/>
+      <c r="C97" s="26"/>
       <c r="D97" s="1" t="s">
         <v>227</v>
       </c>
       <c r="E97" s="3"/>
     </row>
     <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="26"/>
+      <c r="A98" s="32"/>
       <c r="B98" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C98" s="23"/>
+      <c r="C98" s="26"/>
       <c r="D98" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E98" s="17"/>
+      <c r="E98" s="37"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="26"/>
+      <c r="A99" s="32"/>
       <c r="B99" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C99" s="23"/>
+      <c r="C99" s="26"/>
       <c r="D99" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E99" s="18"/>
+      <c r="E99" s="39"/>
     </row>
     <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="26"/>
+      <c r="A100" s="32"/>
       <c r="B100" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C100" s="24"/>
+      <c r="C100" s="27"/>
       <c r="D100" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="E100" s="19"/>
+      <c r="E100" s="38"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="26"/>
+      <c r="A101" s="32"/>
       <c r="B101" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C101" s="22" t="s">
+      <c r="C101" s="25" t="s">
         <v>132</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="E101" s="20"/>
+      <c r="E101" s="35"/>
     </row>
     <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="26"/>
+      <c r="A102" s="32"/>
       <c r="B102" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C102" s="23"/>
+      <c r="C102" s="26"/>
       <c r="D102" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E102" s="18"/>
+      <c r="E102" s="39"/>
     </row>
     <row r="103" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="27"/>
+      <c r="A103" s="33"/>
       <c r="B103" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C103" s="24"/>
+      <c r="C103" s="27"/>
       <c r="D103" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="E103" s="19"/>
+      <c r="E103" s="38"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="25">
+      <c r="A104" s="31">
         <v>5</v>
       </c>
       <c r="B104" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="22" t="s">
+      <c r="C104" s="25" t="s">
         <v>129</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="E104" s="20"/>
+      <c r="E104" s="35"/>
     </row>
     <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="26"/>
+      <c r="A105" s="32"/>
       <c r="B105" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C105" s="23"/>
+      <c r="C105" s="26"/>
       <c r="D105" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E105" s="21"/>
+      <c r="E105" s="36"/>
     </row>
     <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="26"/>
+      <c r="A106" s="32"/>
       <c r="B106" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C106" s="24"/>
+      <c r="C106" s="27"/>
       <c r="D106" s="15" t="s">
         <v>236</v>
       </c>
       <c r="E106" s="4"/>
     </row>
     <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="26"/>
+      <c r="A107" s="32"/>
       <c r="B107" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C107" s="22" t="s">
+      <c r="C107" s="25" t="s">
         <v>130</v>
       </c>
       <c r="D107" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="E107" s="20"/>
+      <c r="E107" s="35"/>
     </row>
     <row r="108" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="26"/>
+      <c r="A108" s="32"/>
       <c r="B108" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C108" s="23"/>
+      <c r="C108" s="26"/>
       <c r="D108" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E108" s="18"/>
+      <c r="E108" s="39"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="26"/>
+      <c r="A109" s="32"/>
       <c r="B109" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C109" s="23"/>
+      <c r="C109" s="26"/>
       <c r="D109" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E109" s="18"/>
+      <c r="E109" s="39"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="26"/>
+      <c r="A110" s="32"/>
       <c r="B110" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C110" s="23"/>
+      <c r="C110" s="26"/>
       <c r="D110" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E110" s="21"/>
+      <c r="E110" s="36"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="26"/>
+      <c r="A111" s="32"/>
       <c r="B111" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C111" s="23"/>
+      <c r="C111" s="26"/>
       <c r="D111" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E111" s="17"/>
+      <c r="E111" s="37"/>
     </row>
     <row r="112" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A112" s="26"/>
+      <c r="A112" s="32"/>
       <c r="B112" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C112" s="23"/>
+      <c r="C112" s="26"/>
       <c r="D112" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E112" s="18"/>
+      <c r="E112" s="39"/>
     </row>
     <row r="113" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="26"/>
+      <c r="A113" s="32"/>
       <c r="B113" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C113" s="24"/>
+      <c r="C113" s="27"/>
       <c r="D113" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="E113" s="19"/>
+      <c r="E113" s="38"/>
     </row>
     <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="26"/>
+      <c r="A114" s="32"/>
       <c r="B114" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C114" s="22" t="s">
+      <c r="C114" s="25" t="s">
         <v>133</v>
       </c>
       <c r="D114" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="E114" s="20"/>
+      <c r="E114" s="35"/>
     </row>
     <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="26"/>
+      <c r="A115" s="32"/>
       <c r="B115" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C115" s="23"/>
+      <c r="C115" s="26"/>
       <c r="D115" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E115" s="21"/>
+      <c r="E115" s="36"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="26"/>
+      <c r="A116" s="32"/>
       <c r="B116" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C116" s="23"/>
+      <c r="C116" s="26"/>
       <c r="D116" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E116" s="17"/>
+      <c r="E116" s="37"/>
     </row>
     <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="26"/>
+      <c r="A117" s="32"/>
       <c r="B117" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C117" s="23"/>
+      <c r="C117" s="26"/>
       <c r="D117" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E117" s="18"/>
+      <c r="E117" s="39"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="26"/>
+      <c r="A118" s="32"/>
       <c r="B118" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C118" s="23"/>
+      <c r="C118" s="26"/>
       <c r="D118" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E118" s="18"/>
+      <c r="E118" s="39"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="26"/>
+      <c r="A119" s="32"/>
       <c r="B119" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C119" s="23"/>
+      <c r="C119" s="26"/>
       <c r="D119" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E119" s="18"/>
+      <c r="E119" s="39"/>
     </row>
     <row r="120" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="26"/>
+      <c r="A120" s="32"/>
       <c r="B120" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C120" s="24"/>
+      <c r="C120" s="27"/>
       <c r="D120" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="E120" s="19"/>
+      <c r="E120" s="38"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="26"/>
+      <c r="A121" s="32"/>
       <c r="B121" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C121" s="22" t="s">
+      <c r="C121" s="25" t="s">
         <v>131</v>
       </c>
       <c r="D121" s="16" t="s">
@@ -7513,106 +7543,151 @@
       <c r="E121" s="2"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="26"/>
+      <c r="A122" s="32"/>
       <c r="B122" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C122" s="23"/>
+      <c r="C122" s="26"/>
       <c r="D122" s="1" t="s">
         <v>252</v>
       </c>
       <c r="E122" s="3"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="26"/>
+      <c r="A123" s="32"/>
       <c r="B123" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C123" s="23"/>
+      <c r="C123" s="26"/>
       <c r="D123" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E123" s="17"/>
+      <c r="E123" s="37"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="26"/>
+      <c r="A124" s="32"/>
       <c r="B124" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C124" s="23"/>
+      <c r="C124" s="26"/>
       <c r="D124" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E124" s="18"/>
+      <c r="E124" s="39"/>
     </row>
     <row r="125" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="26"/>
+      <c r="A125" s="32"/>
       <c r="B125" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C125" s="24"/>
+      <c r="C125" s="27"/>
       <c r="D125" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="E125" s="19"/>
+      <c r="E125" s="38"/>
     </row>
     <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="26"/>
+      <c r="A126" s="32"/>
       <c r="B126" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C126" s="22" t="s">
+      <c r="C126" s="25" t="s">
         <v>132</v>
       </c>
       <c r="D126" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="E126" s="20"/>
+      <c r="E126" s="35"/>
     </row>
     <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="26"/>
+      <c r="A127" s="32"/>
       <c r="B127" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C127" s="23"/>
+      <c r="C127" s="26"/>
       <c r="D127" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E127" s="21"/>
+      <c r="E127" s="36"/>
     </row>
     <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="26"/>
+      <c r="A128" s="32"/>
       <c r="B128" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C128" s="23"/>
+      <c r="C128" s="26"/>
       <c r="D128" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E128" s="17"/>
+      <c r="E128" s="37"/>
     </row>
     <row r="129" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="28"/>
+      <c r="A129" s="34"/>
       <c r="B129" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C129" s="24"/>
+      <c r="C129" s="27"/>
       <c r="D129" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="E129" s="19"/>
+      <c r="E129" s="38"/>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="U131" s="32"/>
-      <c r="V131" s="32"/>
+      <c r="U131" s="17"/>
+      <c r="V131" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="C121:C125"/>
-    <mergeCell ref="C114:C120"/>
-    <mergeCell ref="C107:C113"/>
-    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="E123:E125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="E107:E110"/>
+    <mergeCell ref="E111:E113"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="E116:E120"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="E91:E93"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="E101:E103"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="A4:A24"/>
+    <mergeCell ref="A25:A50"/>
+    <mergeCell ref="A51:A75"/>
+    <mergeCell ref="A76:A103"/>
+    <mergeCell ref="A104:A129"/>
     <mergeCell ref="C101:C103"/>
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="C29:C37"/>
@@ -7627,56 +7702,11 @@
     <mergeCell ref="C81:C86"/>
     <mergeCell ref="C87:C93"/>
     <mergeCell ref="C94:C100"/>
-    <mergeCell ref="A4:A24"/>
-    <mergeCell ref="A25:A50"/>
-    <mergeCell ref="A51:A75"/>
-    <mergeCell ref="A76:A103"/>
-    <mergeCell ref="A104:A129"/>
-    <mergeCell ref="C4:C11"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="E91:E93"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="E98:E100"/>
-    <mergeCell ref="E101:E103"/>
-    <mergeCell ref="E123:E125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="E107:E110"/>
-    <mergeCell ref="E111:E113"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="E116:E120"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="C121:C125"/>
+    <mergeCell ref="C114:C120"/>
+    <mergeCell ref="C107:C113"/>
+    <mergeCell ref="C104:C106"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" display="http://www.corestandards.org/Math/Content/1/OA/A/1/"/>
@@ -7814,8 +7844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7823,1204 +7853,1204 @@
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.28515625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="3.28515625" style="19" customWidth="1"/>
     <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D4" s="34"/>
+      <c r="D4" s="19"/>
       <c r="E4"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="36" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="21" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="5" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="34"/>
+      <c r="D5" s="19"/>
       <c r="E5"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="37" t="s">
+      <c r="F5" s="19"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="22" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="6" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D6" s="34"/>
+      <c r="D6" s="19"/>
       <c r="E6"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="36" t="s">
+      <c r="F6" s="19"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="21" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="7" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="34"/>
+      <c r="D7" s="19"/>
       <c r="E7"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="37" t="s">
+      <c r="F7" s="19"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="22" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="8" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="34"/>
+      <c r="D8" s="19"/>
       <c r="E8"/>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="20" t="s">
         <v>289</v>
       </c>
       <c r="G8"/>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="21" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="9" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="34"/>
+      <c r="D9" s="19"/>
       <c r="E9"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="37" t="s">
+      <c r="F9" s="19"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="22" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="10" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="34"/>
+      <c r="D10" s="19"/>
       <c r="E10"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="36" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="21" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="11" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="34"/>
+      <c r="D11" s="19"/>
       <c r="E11"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="37" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="22" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="12" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="34"/>
+      <c r="D12" s="19"/>
       <c r="E12"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="38" t="s">
+      <c r="F12" s="19"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="23" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="13" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="34"/>
+      <c r="D13" s="19"/>
       <c r="E13"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="36" t="s">
+      <c r="F13" s="19"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="21" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="14" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="20" t="s">
         <v>266</v>
       </c>
       <c r="E14"/>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="37" t="s">
+      <c r="G14" s="17"/>
+      <c r="H14" s="22" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="15" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="34"/>
+      <c r="D15" s="19"/>
       <c r="E15"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="36" t="s">
+      <c r="F15" s="19"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="21" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="16" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="34"/>
+      <c r="D16" s="19"/>
       <c r="E16"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="39" t="s">
+      <c r="F16" s="19"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="24" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="17" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="34"/>
+      <c r="D17" s="19"/>
       <c r="E17"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="37" t="s">
+      <c r="F17" s="19"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="22" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D18" s="34"/>
+      <c r="D18" s="19"/>
       <c r="E18"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="36" t="s">
+      <c r="F18" s="19"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="21" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="19" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="34"/>
+      <c r="D19" s="19"/>
       <c r="E19"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="37" t="s">
+      <c r="F19" s="19"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="22" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="20" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="34"/>
+      <c r="D20" s="19"/>
       <c r="E20"/>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="38" t="s">
+      <c r="G20" s="17"/>
+      <c r="H20" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="21" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="34"/>
+      <c r="D21" s="19"/>
       <c r="E21"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="38" t="s">
+      <c r="F21" s="19"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="23" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="22" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="34"/>
+      <c r="D22" s="19"/>
       <c r="E22"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="36" t="s">
+      <c r="F22" s="19"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="21" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="23" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="34"/>
+      <c r="D23" s="19"/>
       <c r="E23"/>
-      <c r="F23" s="35" t="s">
+      <c r="F23" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="39" t="s">
+      <c r="G23" s="17"/>
+      <c r="H23" s="24" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="24" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="34"/>
+      <c r="D24" s="19"/>
       <c r="E24"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="37" t="s">
+      <c r="F24" s="19"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="22" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="25" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="34"/>
+      <c r="D25" s="19"/>
       <c r="E25"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="38" t="s">
+      <c r="F25" s="19"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="23" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="26" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="34"/>
+      <c r="D26" s="19"/>
       <c r="E26"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="38" t="s">
+      <c r="F26" s="19"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="23" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="27" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="34"/>
+      <c r="D27" s="19"/>
       <c r="E27"/>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="36" t="s">
+      <c r="G27" s="17"/>
+      <c r="H27" s="21" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="28" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="34"/>
+      <c r="D28" s="19"/>
       <c r="E28"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="37" t="s">
+      <c r="F28" s="19"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="22" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="29" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D29" s="34"/>
+      <c r="D29" s="19"/>
       <c r="E29"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="36" t="s">
+      <c r="F29" s="19"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="21" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="30" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D30" s="34"/>
+      <c r="D30" s="19"/>
       <c r="E30"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="39" t="s">
+      <c r="F30" s="19"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="24" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="31" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D31" s="34"/>
+      <c r="D31" s="19"/>
       <c r="E31"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="39" t="s">
+      <c r="F31" s="19"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="24" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="32" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="34"/>
+      <c r="D32" s="19"/>
       <c r="E32"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="37" t="s">
+      <c r="F32" s="19"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="22" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="33" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="34"/>
+      <c r="D33" s="19"/>
       <c r="E33"/>
-      <c r="F33" s="35" t="s">
+      <c r="F33" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="36" t="s">
+      <c r="G33" s="17"/>
+      <c r="H33" s="21" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="34" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D34" s="34"/>
+      <c r="D34" s="19"/>
       <c r="E34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="39" t="s">
+      <c r="F34" s="19"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="24" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="35" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D35" s="34"/>
+      <c r="D35" s="19"/>
       <c r="E35"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="39" t="s">
+      <c r="F35" s="19"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="24" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="36" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="34"/>
+      <c r="D36" s="19"/>
       <c r="E36"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="39" t="s">
+      <c r="F36" s="19"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="24" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="37" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="20" t="s">
         <v>265</v>
       </c>
       <c r="E37"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="37" t="s">
+      <c r="F37" s="19"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="22" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="38" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D38" s="34"/>
+      <c r="D38" s="19"/>
       <c r="E38"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="36" t="s">
+      <c r="F38" s="19"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="21" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="39" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D39" s="34"/>
+      <c r="D39" s="19"/>
       <c r="E39"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="39" t="s">
+      <c r="F39" s="19"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="24" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="40" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D40" s="34"/>
+      <c r="D40" s="19"/>
       <c r="E40"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="39" t="s">
+      <c r="F40" s="19"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="24" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="41" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="34"/>
+      <c r="D41" s="19"/>
       <c r="E41"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="37" t="s">
+      <c r="F41" s="19"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="22" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="42" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="34"/>
+      <c r="D42" s="19"/>
       <c r="E42"/>
-      <c r="F42" s="35" t="s">
+      <c r="F42" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="G42" s="32"/>
-      <c r="H42" s="36" t="s">
+      <c r="G42" s="17"/>
+      <c r="H42" s="21" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="43" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="34"/>
+      <c r="D43" s="19"/>
       <c r="E43"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="37" t="s">
+      <c r="F43" s="19"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="22" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="44" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D44" s="34"/>
+      <c r="D44" s="19"/>
       <c r="E44"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="36" t="s">
+      <c r="F44" s="19"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="21" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="45" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="34"/>
+      <c r="D45" s="19"/>
       <c r="E45"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="37" t="s">
+      <c r="F45" s="19"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="22" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="46" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D46" s="34"/>
+      <c r="D46" s="19"/>
       <c r="E46"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="36" t="s">
+      <c r="F46" s="19"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="21" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="47" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="34"/>
+      <c r="D47" s="19"/>
       <c r="E47"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="37" t="s">
+      <c r="F47" s="19"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="22" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="48" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="34"/>
+      <c r="D48" s="19"/>
       <c r="E48"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="36" t="s">
+      <c r="F48" s="19"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="21" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="49" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="34"/>
+      <c r="D49" s="19"/>
       <c r="E49"/>
-      <c r="F49" s="35" t="s">
+      <c r="F49" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="G49" s="32"/>
-      <c r="H49" s="39" t="s">
+      <c r="G49" s="17"/>
+      <c r="H49" s="24" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="50" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="34"/>
+      <c r="D50" s="19"/>
       <c r="E50"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="37" t="s">
+      <c r="F50" s="19"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="22" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="51" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D51" s="34"/>
+      <c r="D51" s="19"/>
       <c r="E51"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="36" t="s">
+      <c r="F51" s="19"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="21" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="52" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D52" s="34"/>
+      <c r="D52" s="19"/>
       <c r="E52"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="39" t="s">
+      <c r="F52" s="19"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="24" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="53" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D53" s="34"/>
+      <c r="D53" s="19"/>
       <c r="E53"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="39" t="s">
+      <c r="F53" s="19"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="24" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="54" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="34"/>
+      <c r="D54" s="19"/>
       <c r="E54"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="37" t="s">
+      <c r="F54" s="19"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="22" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="55" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="34"/>
+      <c r="D55" s="19"/>
       <c r="E55"/>
-      <c r="F55" s="35" t="s">
+      <c r="F55" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="G55" s="32"/>
-      <c r="H55" s="36" t="s">
+      <c r="G55" s="17"/>
+      <c r="H55" s="21" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="56" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="34"/>
+      <c r="D56" s="19"/>
       <c r="E56"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="37" t="s">
+      <c r="F56" s="19"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="22" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="57" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="34"/>
+      <c r="D57" s="19"/>
       <c r="E57"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="38" t="s">
+      <c r="F57" s="19"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="23" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="58" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D58" s="34"/>
+      <c r="D58" s="19"/>
       <c r="E58"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="36" t="s">
+      <c r="F58" s="19"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="21" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="59" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="34"/>
+      <c r="D59" s="19"/>
       <c r="E59"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="37" t="s">
+      <c r="F59" s="19"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="22" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="60" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="34"/>
+      <c r="D60" s="19"/>
       <c r="E60"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="36" t="s">
+      <c r="F60" s="19"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="21" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="61" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D61" s="34"/>
+      <c r="D61" s="19"/>
       <c r="E61"/>
-      <c r="F61" s="35" t="s">
+      <c r="F61" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="G61" s="32"/>
-      <c r="H61" s="39" t="s">
+      <c r="G61" s="17"/>
+      <c r="H61" s="24" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="62" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D62" s="34"/>
+      <c r="D62" s="19"/>
       <c r="E62"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="37" t="s">
+      <c r="F62" s="19"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="22" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="63" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="35" t="s">
+      <c r="D63" s="20" t="s">
         <v>264</v>
       </c>
       <c r="E63"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="36" t="s">
+      <c r="F63" s="19"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="21" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="64" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="34"/>
+      <c r="D64" s="19"/>
       <c r="E64"/>
-      <c r="F64" s="35" t="s">
+      <c r="F64" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="G64" s="32"/>
-      <c r="H64" s="39" t="s">
+      <c r="G64" s="17"/>
+      <c r="H64" s="24" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="34"/>
+      <c r="D65" s="19"/>
       <c r="E65"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="37" t="s">
+      <c r="F65" s="19"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="22" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="33" t="s">
+      <c r="A66" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="D66" s="34"/>
+      <c r="D66" s="19"/>
       <c r="E66"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="36" t="s">
+      <c r="F66" s="19"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="21" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D67" s="34"/>
+      <c r="D67" s="19"/>
       <c r="E67"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="37" t="s">
+      <c r="F67" s="19"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="22" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D68" s="34"/>
+      <c r="D68" s="19"/>
       <c r="E68"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="36" t="s">
+      <c r="F68" s="19"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="21" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D69" s="34"/>
+      <c r="D69" s="19"/>
       <c r="E69"/>
-      <c r="F69" s="35" t="s">
+      <c r="F69" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="G69" s="32"/>
-      <c r="H69" s="37" t="s">
+      <c r="G69" s="17"/>
+      <c r="H69" s="22" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D70" s="34"/>
+      <c r="D70" s="19"/>
       <c r="E70"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="36" t="s">
+      <c r="F70" s="19"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="21" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D71" s="34"/>
+      <c r="D71" s="19"/>
       <c r="E71"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="39" t="s">
+      <c r="F71" s="19"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="24" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D72" s="34"/>
+      <c r="D72" s="19"/>
       <c r="E72"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="37" t="s">
+      <c r="F72" s="19"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="22" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D73" s="34"/>
+      <c r="D73" s="19"/>
       <c r="E73"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="38" t="s">
+      <c r="F73" s="19"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="23" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D74" s="34"/>
+      <c r="D74" s="19"/>
       <c r="E74"/>
-      <c r="F74" s="35" t="s">
+      <c r="F74" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="G74" s="32"/>
-      <c r="H74" s="36" t="s">
+      <c r="G74" s="17"/>
+      <c r="H74" s="21" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D75" s="34"/>
+      <c r="D75" s="19"/>
       <c r="E75"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="37" t="s">
+      <c r="F75" s="19"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="22" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D76" s="34"/>
+      <c r="D76" s="19"/>
       <c r="E76"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="32"/>
-      <c r="H76" s="36" t="s">
+      <c r="F76" s="19"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="21" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D77" s="34"/>
+      <c r="D77" s="19"/>
       <c r="E77"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="32"/>
-      <c r="H77" s="39" t="s">
+      <c r="F77" s="19"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="24" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D78" s="34"/>
+      <c r="D78" s="19"/>
       <c r="E78"/>
-      <c r="F78" s="35" t="s">
+      <c r="F78" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="G78" s="32"/>
-      <c r="H78" s="37" t="s">
+      <c r="G78" s="17"/>
+      <c r="H78" s="22" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D79" s="34"/>
+      <c r="D79" s="19"/>
       <c r="E79"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="38" t="s">
+      <c r="F79" s="19"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="23" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D80" s="34"/>
+      <c r="D80" s="19"/>
       <c r="E80"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="38" t="s">
+      <c r="F80" s="19"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="23" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="81" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D81" s="34"/>
+      <c r="D81" s="19"/>
       <c r="E81"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="36" t="s">
+      <c r="F81" s="19"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="21" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="82" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D82" s="34"/>
+      <c r="D82" s="19"/>
       <c r="E82"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="39" t="s">
+      <c r="F82" s="19"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="24" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="83" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D83" s="34"/>
+      <c r="D83" s="19"/>
       <c r="E83"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="37" t="s">
+      <c r="F83" s="19"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="22" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="84" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D84" s="34"/>
+      <c r="D84" s="19"/>
       <c r="E84"/>
-      <c r="F84" s="35" t="s">
+      <c r="F84" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="G84" s="32"/>
-      <c r="H84" s="36" t="s">
+      <c r="G84" s="17"/>
+      <c r="H84" s="21" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="85" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D85" s="34"/>
+      <c r="D85" s="19"/>
       <c r="E85"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="39" t="s">
+      <c r="F85" s="19"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="24" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="86" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D86" s="34"/>
+      <c r="D86" s="19"/>
       <c r="E86"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="37" t="s">
+      <c r="F86" s="19"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="22" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="87" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D87" s="34"/>
+      <c r="D87" s="19"/>
       <c r="E87"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="36" t="s">
+      <c r="F87" s="19"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="21" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="88" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D88" s="34"/>
+      <c r="D88" s="19"/>
       <c r="E88"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="37" t="s">
+      <c r="F88" s="19"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="22" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="89" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D89" s="34"/>
+      <c r="D89" s="19"/>
       <c r="E89"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="32"/>
-      <c r="H89" s="36" t="s">
+      <c r="F89" s="19"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="21" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="90" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D90" s="35" t="s">
+      <c r="D90" s="20" t="s">
         <v>263</v>
       </c>
       <c r="E90"/>
-      <c r="F90" s="35" t="s">
+      <c r="F90" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="G90" s="32"/>
-      <c r="H90" s="37" t="s">
+      <c r="G90" s="17"/>
+      <c r="H90" s="22" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="91" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D91" s="34"/>
+      <c r="D91" s="19"/>
       <c r="E91"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="32"/>
-      <c r="H91" s="36" t="s">
+      <c r="F91" s="19"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="21" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="92" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D92" s="34"/>
+      <c r="D92" s="19"/>
       <c r="E92"/>
-      <c r="F92" s="34"/>
-      <c r="G92" s="32"/>
-      <c r="H92" s="39" t="s">
+      <c r="F92" s="19"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="24" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="93" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D93" s="34"/>
+      <c r="D93" s="19"/>
       <c r="E93"/>
-      <c r="F93" s="34"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="37" t="s">
+      <c r="F93" s="19"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="22" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="94" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D94" s="34"/>
+      <c r="D94" s="19"/>
       <c r="E94"/>
-      <c r="F94" s="34"/>
-      <c r="G94" s="32"/>
-      <c r="H94" s="36" t="s">
+      <c r="F94" s="19"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="21" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="95" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D95" s="34"/>
+      <c r="D95" s="19"/>
       <c r="E95"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="32"/>
-      <c r="H95" s="39" t="s">
+      <c r="F95" s="19"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="24" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="96" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D96" s="34"/>
+      <c r="D96" s="19"/>
       <c r="E96"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="32"/>
-      <c r="H96" s="37" t="s">
+      <c r="F96" s="19"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="22" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="97" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D97" s="34"/>
+      <c r="D97" s="19"/>
       <c r="E97"/>
-      <c r="F97" s="35" t="s">
+      <c r="F97" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="G97" s="32"/>
-      <c r="H97" s="38" t="s">
+      <c r="G97" s="17"/>
+      <c r="H97" s="23" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="98" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D98" s="34"/>
+      <c r="D98" s="19"/>
       <c r="E98"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="32"/>
-      <c r="H98" s="36" t="s">
+      <c r="F98" s="19"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="21" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="99" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D99" s="34"/>
+      <c r="D99" s="19"/>
       <c r="E99"/>
-      <c r="F99" s="34"/>
-      <c r="G99" s="32"/>
-      <c r="H99" s="39" t="s">
+      <c r="F99" s="19"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="24" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="100" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D100" s="34"/>
+      <c r="D100" s="19"/>
       <c r="E100"/>
-      <c r="F100" s="34"/>
-      <c r="G100" s="32"/>
-      <c r="H100" s="37" t="s">
+      <c r="F100" s="19"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="22" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="101" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D101" s="34"/>
+      <c r="D101" s="19"/>
       <c r="E101"/>
-      <c r="F101" s="34"/>
-      <c r="G101" s="32"/>
-      <c r="H101" s="36" t="s">
+      <c r="F101" s="19"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="21" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="102" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D102" s="34"/>
+      <c r="D102" s="19"/>
       <c r="E102"/>
-      <c r="F102" s="35" t="s">
+      <c r="F102" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="G102" s="32"/>
-      <c r="H102" s="39" t="s">
+      <c r="G102" s="17"/>
+      <c r="H102" s="24" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="103" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D103" s="34"/>
+      <c r="D103" s="19"/>
       <c r="E103"/>
-      <c r="F103" s="34"/>
-      <c r="G103" s="32"/>
-      <c r="H103" s="37" t="s">
+      <c r="F103" s="19"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="22" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="104" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D104" s="34"/>
+      <c r="D104" s="19"/>
       <c r="E104"/>
-      <c r="F104" s="34"/>
-      <c r="G104" s="32"/>
-      <c r="H104" s="36" t="s">
+      <c r="F104" s="19"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="21" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="105" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D105" s="34"/>
+      <c r="D105" s="19"/>
       <c r="E105"/>
-      <c r="F105" s="35" t="s">
+      <c r="F105" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="G105" s="32"/>
-      <c r="H105" s="37" t="s">
+      <c r="G105" s="17"/>
+      <c r="H105" s="22" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="106" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D106" s="34"/>
+      <c r="D106" s="19"/>
       <c r="E106"/>
-      <c r="F106" s="34"/>
-      <c r="G106" s="32"/>
-      <c r="H106" s="38" t="s">
+      <c r="F106" s="19"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="107" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D107" s="34"/>
+      <c r="D107" s="19"/>
       <c r="E107"/>
-      <c r="F107" s="34"/>
-      <c r="G107" s="32"/>
-      <c r="H107" s="36" t="s">
+      <c r="F107" s="19"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="21" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="108" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D108" s="34"/>
+      <c r="D108" s="19"/>
       <c r="E108"/>
-      <c r="F108" s="34"/>
-      <c r="G108" s="32"/>
-      <c r="H108" s="39" t="s">
+      <c r="F108" s="19"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="24" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="109" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D109" s="34"/>
+      <c r="D109" s="19"/>
       <c r="E109"/>
-      <c r="F109" s="34"/>
-      <c r="G109" s="32"/>
-      <c r="H109" s="39" t="s">
+      <c r="F109" s="19"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="24" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="110" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D110" s="34"/>
+      <c r="D110" s="19"/>
       <c r="E110"/>
-      <c r="F110" s="35" t="s">
+      <c r="F110" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="G110" s="32"/>
-      <c r="H110" s="37" t="s">
+      <c r="G110" s="17"/>
+      <c r="H110" s="22" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="111" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D111" s="34"/>
+      <c r="D111" s="19"/>
       <c r="E111"/>
-      <c r="F111" s="34"/>
-      <c r="G111" s="32"/>
-      <c r="H111" s="36" t="s">
+      <c r="F111" s="19"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="21" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="112" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D112" s="34"/>
+      <c r="D112" s="19"/>
       <c r="E112"/>
-      <c r="F112" s="34"/>
-      <c r="G112" s="32"/>
-      <c r="H112" s="39" t="s">
+      <c r="F112" s="19"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="24" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="113" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D113" s="34"/>
+      <c r="D113" s="19"/>
       <c r="E113"/>
-      <c r="F113" s="34"/>
-      <c r="G113" s="32"/>
-      <c r="H113" s="37" t="s">
+      <c r="F113" s="19"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="22" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="114" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D114" s="34"/>
+      <c r="D114" s="19"/>
       <c r="E114"/>
-      <c r="F114" s="34"/>
-      <c r="G114" s="32"/>
-      <c r="H114" s="36" t="s">
+      <c r="F114" s="19"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="21" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="115" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D115" s="34"/>
+      <c r="D115" s="19"/>
       <c r="E115"/>
-      <c r="F115" s="34"/>
-      <c r="G115" s="32"/>
-      <c r="H115" s="37" t="s">
+      <c r="F115" s="19"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="22" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="116" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D116" s="35" t="s">
+      <c r="D116" s="20" t="s">
         <v>262</v>
       </c>
       <c r="E116"/>
-      <c r="F116" s="34"/>
-      <c r="G116" s="32"/>
-      <c r="H116" s="36" t="s">
+      <c r="F116" s="19"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="21" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="117" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D117" s="34"/>
+      <c r="D117" s="19"/>
       <c r="E117"/>
-      <c r="F117" s="35" t="s">
+      <c r="F117" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="G117" s="32"/>
-      <c r="H117" s="39" t="s">
+      <c r="G117" s="17"/>
+      <c r="H117" s="24" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="118" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D118" s="34"/>
+      <c r="D118" s="19"/>
       <c r="E118"/>
-      <c r="F118" s="34"/>
-      <c r="G118" s="32"/>
-      <c r="H118" s="39" t="s">
+      <c r="F118" s="19"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="24" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="119" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D119" s="34"/>
+      <c r="D119" s="19"/>
       <c r="E119"/>
-      <c r="F119" s="34"/>
-      <c r="G119" s="32"/>
-      <c r="H119" s="39" t="s">
+      <c r="F119" s="19"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="24" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="120" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D120" s="34"/>
+      <c r="D120" s="19"/>
       <c r="E120"/>
-      <c r="F120" s="34"/>
-      <c r="G120" s="32"/>
-      <c r="H120" s="37" t="s">
+      <c r="F120" s="19"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="22" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="121" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D121" s="34"/>
+      <c r="D121" s="19"/>
       <c r="E121"/>
-      <c r="F121" s="34"/>
-      <c r="G121" s="32"/>
-      <c r="H121" s="38" t="s">
+      <c r="F121" s="19"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="23" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="122" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D122" s="34"/>
+      <c r="D122" s="19"/>
       <c r="E122"/>
-      <c r="F122" s="34"/>
-      <c r="G122" s="32"/>
-      <c r="H122" s="38" t="s">
+      <c r="F122" s="19"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="23" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="123" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D123" s="34"/>
+      <c r="D123" s="19"/>
       <c r="E123"/>
-      <c r="F123" s="35" t="s">
+      <c r="F123" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="G123" s="32"/>
-      <c r="H123" s="36" t="s">
+      <c r="G123" s="17"/>
+      <c r="H123" s="21" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="124" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D124" s="34"/>
+      <c r="D124" s="19"/>
       <c r="E124"/>
-      <c r="F124" s="34"/>
-      <c r="G124" s="32"/>
-      <c r="H124" s="39" t="s">
+      <c r="F124" s="19"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="24" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="125" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D125" s="34"/>
+      <c r="D125" s="19"/>
       <c r="E125"/>
-      <c r="F125" s="34"/>
-      <c r="G125" s="32"/>
-      <c r="H125" s="37" t="s">
+      <c r="F125" s="19"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="22" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="126" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D126" s="34"/>
+      <c r="D126" s="19"/>
       <c r="E126"/>
-      <c r="F126" s="34"/>
-      <c r="G126" s="32"/>
-      <c r="H126" s="36" t="s">
+      <c r="F126" s="19"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="21" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="127" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D127" s="34"/>
+      <c r="D127" s="19"/>
       <c r="E127"/>
-      <c r="F127" s="35" t="s">
+      <c r="F127" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="G127" s="32"/>
-      <c r="H127" s="37" t="s">
+      <c r="G127" s="17"/>
+      <c r="H127" s="22" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="128" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D128" s="34"/>
+      <c r="D128" s="19"/>
       <c r="E128"/>
-      <c r="F128" s="34"/>
-      <c r="G128" s="32"/>
-      <c r="H128" s="36" t="s">
+      <c r="F128" s="19"/>
+      <c r="G128" s="17"/>
+      <c r="H128" s="21" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="129" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D129" s="34"/>
+      <c r="D129" s="19"/>
       <c r="E129"/>
-      <c r="F129" s="34"/>
-      <c r="G129" s="32"/>
-      <c r="H129" s="37" t="s">
+      <c r="F129" s="19"/>
+      <c r="G129" s="17"/>
+      <c r="H129" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -9190,12 +9220,266 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C5:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G5" t="s">
+        <v>300</v>
+      </c>
+      <c r="I5" t="s">
+        <v>301</v>
+      </c>
+      <c r="K5" t="s">
+        <v>316</v>
+      </c>
+      <c r="M5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E10" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E11" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I12" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I13" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E16" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E21" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E25" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E27" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E28" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E29" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="G31" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="G32" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E10" r:id="rId1" display="http://www.corestandards.org/Math/Content/1/OA/A/1/"/>
+    <hyperlink ref="E11" r:id="rId2" display="http://www.corestandards.org/Math/Content/1/OA/A/2/"/>
+    <hyperlink ref="E15" r:id="rId3" display="http://www.corestandards.org/Math/Content/1/OA/B/3/"/>
+    <hyperlink ref="E16" r:id="rId4" display="http://www.corestandards.org/Math/Content/1/OA/B/4/"/>
+    <hyperlink ref="E18" r:id="rId5" location="CCSS.Math.Content.1.OA.C.5" display="http://www.corestandards.org/Math/Content/1/OA/ - CCSS.Math.Content.1.OA.C.5"/>
+    <hyperlink ref="E19" r:id="rId6" location="CCSS.Math.Content.1.OA.C.6" display="http://www.corestandards.org/Math/Content/1/OA/ - CCSS.Math.Content.1.OA.C.6"/>
+    <hyperlink ref="E21" r:id="rId7" location="CCSS.Math.Content.1.OA.D.7" display="http://www.corestandards.org/Math/Content/1/OA/ - CCSS.Math.Content.1.OA.D.7"/>
+    <hyperlink ref="E22" r:id="rId8" location="CCSS.Math.Content.1.OA.D.8" display="http://www.corestandards.org/Math/Content/1/OA/ - CCSS.Math.Content.1.OA.D.8"/>
+    <hyperlink ref="G10" r:id="rId9" location="CCSS.Math.Content.2.OA.A.1" display="http://www.corestandards.org/Math/Content/2/OA/ - CCSS.Math.Content.2.OA.A.1"/>
+    <hyperlink ref="G15" r:id="rId10" location="CCSS.Math.Content.2.OA.B.2" display="http://www.corestandards.org/Math/Content/2/OA/ - CCSS.Math.Content.2.OA.B.2"/>
+    <hyperlink ref="G18" r:id="rId11" location="CCSS.Math.Content.2.OA.C.3" display="http://www.corestandards.org/Math/Content/2/OA/ - CCSS.Math.Content.2.OA.C.3"/>
+    <hyperlink ref="G19" r:id="rId12" location="CCSS.Math.Content.2.OA.C.4" display="http://www.corestandards.org/Math/Content/2/OA/ - CCSS.Math.Content.2.OA.C.4"/>
+    <hyperlink ref="K10" r:id="rId13" location="CCSS.Math.Content.4.OA.A.1" display="http://www.corestandards.org/Math/Content/4/OA/ - CCSS.Math.Content.4.OA.A.1"/>
+    <hyperlink ref="K11" r:id="rId14" location="CCSS.Math.Content.4.OA.A.2" display="http://www.corestandards.org/Math/Content/4/OA/ - CCSS.Math.Content.4.OA.A.2"/>
+    <hyperlink ref="K12" r:id="rId15" location="CCSS.Math.Content.4.OA.A.3" display="http://www.corestandards.org/Math/Content/4/OA/ - CCSS.Math.Content.4.OA.A.3"/>
+    <hyperlink ref="K15" r:id="rId16" location="CCSS.Math.Content.4.OA.B.4" display="http://www.corestandards.org/Math/Content/4/OA/ - CCSS.Math.Content.4.OA.B.4"/>
+    <hyperlink ref="K18" r:id="rId17" location="CCSS.Math.Content.4.OA.C.5" display="http://www.corestandards.org/Math/Content/4/OA/ - CCSS.Math.Content.4.OA.C.5"/>
+    <hyperlink ref="I10" r:id="rId18" location="CCSS.Math.Content.3.OA.A.1" display="http://www.corestandards.org/Math/Content/3/OA/ - CCSS.Math.Content.3.OA.A.1"/>
+    <hyperlink ref="I11" r:id="rId19" location="CCSS.Math.Content.3.OA.A.2" display="http://www.corestandards.org/Math/Content/3/OA/ - CCSS.Math.Content.3.OA.A.2"/>
+    <hyperlink ref="I12" r:id="rId20" location="CCSS.Math.Content.3.OA.A.3" display="http://www.corestandards.org/Math/Content/3/OA/ - CCSS.Math.Content.3.OA.A.3"/>
+    <hyperlink ref="I13" r:id="rId21" location="CCSS.Math.Content.3.OA.A.4" display="http://www.corestandards.org/Math/Content/3/OA/ - CCSS.Math.Content.3.OA.A.4"/>
+    <hyperlink ref="I15" r:id="rId22" location="CCSS.Math.Content.3.OA.B.5" display="http://www.corestandards.org/Math/Content/3/OA/ - CCSS.Math.Content.3.OA.B.5"/>
+    <hyperlink ref="I16" r:id="rId23" location="CCSS.Math.Content.3.OA.B.6" display="http://www.corestandards.org/Math/Content/3/OA/ - CCSS.Math.Content.3.OA.B.6"/>
+    <hyperlink ref="I18" r:id="rId24" location="CCSS.Math.Content.3.OA.C.7" display="http://www.corestandards.org/Math/Content/3/OA/ - CCSS.Math.Content.3.OA.C.7"/>
+    <hyperlink ref="I21" r:id="rId25" location="CCSS.Math.Content.3.OA.D.8" display="http://www.corestandards.org/Math/Content/3/OA/ - CCSS.Math.Content.3.OA.D.8"/>
+    <hyperlink ref="I22" r:id="rId26" location="CCSS.Math.Content.3.OA.D.9" display="http://www.corestandards.org/Math/Content/3/OA/ - CCSS.Math.Content.3.OA.D.9"/>
+    <hyperlink ref="M10" r:id="rId27" location="CCSS.Math.Content.5.OA.A.1" display="http://www.corestandards.org/Math/Content/5/OA/ - CCSS.Math.Content.5.OA.A.1"/>
+    <hyperlink ref="M11" r:id="rId28" location="CCSS.Math.Content.5.OA.A.2" display="http://www.corestandards.org/Math/Content/5/OA/ - CCSS.Math.Content.5.OA.A.2"/>
+    <hyperlink ref="M15" r:id="rId29" location="CCSS.Math.Content.5.OA.B.3" display="http://www.corestandards.org/Math/Content/5/OA/ - CCSS.Math.Content.5.OA.B.3"/>
+    <hyperlink ref="E25" r:id="rId30" location="CCSS.Math.Content.1.NBT.A.1" display="http://www.corestandards.org/Math/Content/1/NBT/ - CCSS.Math.Content.1.NBT.A.1"/>
+    <hyperlink ref="E26" r:id="rId31" location="CCSS.Math.Content.1.NBT.B.2" display="http://www.corestandards.org/Math/Content/1/NBT/ - CCSS.Math.Content.1.NBT.B.2"/>
+    <hyperlink ref="E27" r:id="rId32" location="CCSS.Math.Content.1.NBT.B.3" display="http://www.corestandards.org/Math/Content/1/NBT/ - CCSS.Math.Content.1.NBT.B.3"/>
+    <hyperlink ref="E28" r:id="rId33" location="CCSS.Math.Content.1.NBT.C.4" display="http://www.corestandards.org/Math/Content/1/NBT/ - CCSS.Math.Content.1.NBT.C.4"/>
+    <hyperlink ref="E29" r:id="rId34" location="CCSS.Math.Content.1.NBT.C.5" display="http://www.corestandards.org/Math/Content/1/NBT/ - CCSS.Math.Content.1.NBT.C.5"/>
+    <hyperlink ref="E30" r:id="rId35" location="CCSS.Math.Content.1.NBT.C.6" display="http://www.corestandards.org/Math/Content/1/NBT/ - CCSS.Math.Content.1.NBT.C.6"/>
+    <hyperlink ref="G25" r:id="rId36" location="CCSS.Math.Content.2.NBT.A.1" display="http://www.corestandards.org/Math/Content/2/NBT/ - CCSS.Math.Content.2.NBT.A.1"/>
+    <hyperlink ref="G26" r:id="rId37" location="CCSS.Math.Content.2.NBT.A.2" display="http://www.corestandards.org/Math/Content/2/NBT/ - CCSS.Math.Content.2.NBT.A.2"/>
+    <hyperlink ref="G27" r:id="rId38" location="CCSS.Math.Content.2.NBT.A.3" display="http://www.corestandards.org/Math/Content/2/NBT/ - CCSS.Math.Content.2.NBT.A.3"/>
+    <hyperlink ref="G28" r:id="rId39" location="CCSS.Math.Content.2.NBT.A.4" display="http://www.corestandards.org/Math/Content/2/NBT/ - CCSS.Math.Content.2.NBT.A.4"/>
+    <hyperlink ref="G29" r:id="rId40" location="CCSS.Math.Content.2.NBT.B.5" display="http://www.corestandards.org/Math/Content/2/NBT/ - CCSS.Math.Content.2.NBT.B.5"/>
+    <hyperlink ref="G30" r:id="rId41" location="CCSS.Math.Content.2.NBT.B.6" display="http://www.corestandards.org/Math/Content/2/NBT/ - CCSS.Math.Content.2.NBT.B.6"/>
+    <hyperlink ref="G31" r:id="rId42" location="CCSS.Math.Content.2.NBT.B.7" display="http://www.corestandards.org/Math/Content/2/NBT/ - CCSS.Math.Content.2.NBT.B.7"/>
+    <hyperlink ref="G32" r:id="rId43" location="CCSS.Math.Content.2.NBT.B.8" display="http://www.corestandards.org/Math/Content/2/NBT/ - CCSS.Math.Content.2.NBT.B.8"/>
+    <hyperlink ref="G33" r:id="rId44" location="CCSS.Math.Content.2.NBT.B.9" display="http://www.corestandards.org/Math/Content/2/NBT/ - CCSS.Math.Content.2.NBT.B.9"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Sonstiges/Standards/CCSS-Math.xlsx
+++ b/Sonstiges/Standards/CCSS-Math.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\07 Dokumente\Duales Studium\DHBW\5. Semester\00 Studienarbeit\NoRPG-docs\Sonstiges\Standards\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="23715" windowHeight="10035"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="23715" windowHeight="10035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="425">
   <si>
     <t>CCSS.Math.Content.1.OA.A.1</t>
   </si>
@@ -1219,9 +1224,6 @@
     <t>Mentally add 10 or 100 to a given number 100-900, and mentally subtract 10 or 100 from a given number 100-900</t>
   </si>
   <si>
-    <t>Abhängigkeiten</t>
-  </si>
-  <si>
     <t>5.</t>
   </si>
   <si>
@@ -1321,80 +1323,404 @@
     <t>CCSS.Math.Content</t>
   </si>
   <si>
-    <t>OA.B.3</t>
-  </si>
-  <si>
-    <t>OA.A.2</t>
-  </si>
-  <si>
-    <t>OA.A.1</t>
-  </si>
-  <si>
     <t>OA</t>
   </si>
   <si>
-    <t>1. Grade</t>
-  </si>
-  <si>
-    <t>2. Grade</t>
-  </si>
-  <si>
-    <t>3. Grade</t>
-  </si>
-  <si>
-    <t>OA.B.4</t>
-  </si>
-  <si>
-    <t>OA.C.5</t>
-  </si>
-  <si>
-    <t>OA.C.6</t>
-  </si>
-  <si>
-    <t>OA.D.7</t>
-  </si>
-  <si>
-    <t>OA.D.8</t>
-  </si>
-  <si>
-    <t>OA.B.2</t>
-  </si>
-  <si>
-    <t>OA.C.3</t>
-  </si>
-  <si>
-    <t>OA.C.4</t>
-  </si>
-  <si>
-    <t>OA.A.3</t>
-  </si>
-  <si>
-    <t>OA.A.4</t>
-  </si>
-  <si>
-    <t>OA.B.5</t>
-  </si>
-  <si>
-    <t>OA.B.6</t>
-  </si>
-  <si>
-    <t>OA.C.7</t>
-  </si>
-  <si>
-    <t>OA.D.9</t>
-  </si>
-  <si>
-    <t>4. Grade</t>
-  </si>
-  <si>
-    <t>5. Grade</t>
+    <t>NBT</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>1.OA.A.1</t>
+  </si>
+  <si>
+    <t>1.OA.A.2</t>
+  </si>
+  <si>
+    <t>1.OA.B.3</t>
+  </si>
+  <si>
+    <t>1.OA.B.4</t>
+  </si>
+  <si>
+    <t>1.OA.C.5</t>
+  </si>
+  <si>
+    <t>1.OA.C.6</t>
+  </si>
+  <si>
+    <t>1.OA.D.7</t>
+  </si>
+  <si>
+    <t>1.OA.D.8</t>
+  </si>
+  <si>
+    <t>2.OA.A.1</t>
+  </si>
+  <si>
+    <t>2.OA.B.2</t>
+  </si>
+  <si>
+    <t>2.OA.C.3</t>
+  </si>
+  <si>
+    <t>2.OA.C.4</t>
+  </si>
+  <si>
+    <t>3.OA.A.1</t>
+  </si>
+  <si>
+    <t>3.OA.A.2</t>
+  </si>
+  <si>
+    <t>3.OA.A.3</t>
+  </si>
+  <si>
+    <t>3.OA.A.4</t>
+  </si>
+  <si>
+    <t>3.OA.B.5</t>
+  </si>
+  <si>
+    <t>3.OA.B.6</t>
+  </si>
+  <si>
+    <t>3.OA.C.7</t>
+  </si>
+  <si>
+    <t>3.OA.D.8</t>
+  </si>
+  <si>
+    <t>3.OA.D.9</t>
+  </si>
+  <si>
+    <t>4.OA.A.1</t>
+  </si>
+  <si>
+    <t>4.OA.A.2</t>
+  </si>
+  <si>
+    <t>4.OA.A.3</t>
+  </si>
+  <si>
+    <t>4.OA.B.4</t>
+  </si>
+  <si>
+    <t>4.OA.C.5</t>
+  </si>
+  <si>
+    <t>5.OA.A.1</t>
+  </si>
+  <si>
+    <t>5.OA.A.2</t>
+  </si>
+  <si>
+    <t>5.OA.B.3</t>
+  </si>
+  <si>
+    <t>1.NBT.A.1</t>
+  </si>
+  <si>
+    <t>1.NBT.B.2</t>
+  </si>
+  <si>
+    <t>1.NBT.B.3</t>
+  </si>
+  <si>
+    <t>1.NBT.C.4</t>
+  </si>
+  <si>
+    <t>1.NBT.C.5</t>
+  </si>
+  <si>
+    <t>1.NBT.C.6</t>
+  </si>
+  <si>
+    <t>1.MD.A.1</t>
+  </si>
+  <si>
+    <t>1.MD.A.2</t>
+  </si>
+  <si>
+    <t>1.MD.B.3</t>
+  </si>
+  <si>
+    <t>1.MD.C.4</t>
+  </si>
+  <si>
+    <t>1.G.A.1</t>
+  </si>
+  <si>
+    <t>1.G.A.2</t>
+  </si>
+  <si>
+    <t>1.G.A.3</t>
+  </si>
+  <si>
+    <t>2.NBT.A.1</t>
+  </si>
+  <si>
+    <t>2.NBT.A.2</t>
+  </si>
+  <si>
+    <t>2.NBT.A.3</t>
+  </si>
+  <si>
+    <t>2.NBT.A.4</t>
+  </si>
+  <si>
+    <t>2.NBT.B.5</t>
+  </si>
+  <si>
+    <t>2.NBT.B.6</t>
+  </si>
+  <si>
+    <t>2.NBT.B.7</t>
+  </si>
+  <si>
+    <t>2.NBT.B.8</t>
+  </si>
+  <si>
+    <t>2.NBT.B.9</t>
+  </si>
+  <si>
+    <t>2.MD.A.1</t>
+  </si>
+  <si>
+    <t>2.MD.A.2</t>
+  </si>
+  <si>
+    <t>2.MD.A.3</t>
+  </si>
+  <si>
+    <t>2.MD.A.4</t>
+  </si>
+  <si>
+    <t>2.MD.B.5</t>
+  </si>
+  <si>
+    <t>2.MD.B.6</t>
+  </si>
+  <si>
+    <t>2.MD.C.7</t>
+  </si>
+  <si>
+    <t>2.MD.C.8</t>
+  </si>
+  <si>
+    <t>2.MD.D.9</t>
+  </si>
+  <si>
+    <t>2.MD.D.10</t>
+  </si>
+  <si>
+    <t>2.G.A.1</t>
+  </si>
+  <si>
+    <t>2.G.A.2</t>
+  </si>
+  <si>
+    <t>2.G.A.3</t>
+  </si>
+  <si>
+    <t>3.NBT.A.1</t>
+  </si>
+  <si>
+    <t>3.NBT.A.2</t>
+  </si>
+  <si>
+    <t>3.NBT.A.3</t>
+  </si>
+  <si>
+    <t>3.MD.A.1</t>
+  </si>
+  <si>
+    <t>3.MD.A.2</t>
+  </si>
+  <si>
+    <t>3.MD.B.3</t>
+  </si>
+  <si>
+    <t>3.MD.B.4</t>
+  </si>
+  <si>
+    <t>3.MD.C.5</t>
+  </si>
+  <si>
+    <t>3.MD.C.6</t>
+  </si>
+  <si>
+    <t>3.MD.C.7</t>
+  </si>
+  <si>
+    <t>3.MD.D.8</t>
+  </si>
+  <si>
+    <t>3.G.A.1</t>
+  </si>
+  <si>
+    <t>3.G.A.2</t>
+  </si>
+  <si>
+    <t>3.NF.A.1</t>
+  </si>
+  <si>
+    <t>3.NF.A.2</t>
+  </si>
+  <si>
+    <t>3.NF.A.3</t>
+  </si>
+  <si>
+    <t>4.NBT.A.1</t>
+  </si>
+  <si>
+    <t>4.NBT.A.2</t>
+  </si>
+  <si>
+    <t>4.NBT.A.3</t>
+  </si>
+  <si>
+    <t>4.NBT.B.4</t>
+  </si>
+  <si>
+    <t>4.NBT.B.5</t>
+  </si>
+  <si>
+    <t>4.NBT.B.6</t>
+  </si>
+  <si>
+    <t>4.MD.A.1</t>
+  </si>
+  <si>
+    <t>4.MD.A.2</t>
+  </si>
+  <si>
+    <t>4.MD.A.3</t>
+  </si>
+  <si>
+    <t>4.MD.B.4</t>
+  </si>
+  <si>
+    <t>4.MD.C.5</t>
+  </si>
+  <si>
+    <t>4.MD.C.6</t>
+  </si>
+  <si>
+    <t>4.MD.C.7</t>
+  </si>
+  <si>
+    <t>4.G.A.1</t>
+  </si>
+  <si>
+    <t>4.G.A.2</t>
+  </si>
+  <si>
+    <t>4.G.A.3</t>
+  </si>
+  <si>
+    <t>4.NF.A.1</t>
+  </si>
+  <si>
+    <t>4.NF.A.2</t>
+  </si>
+  <si>
+    <t>4.NF.B.3</t>
+  </si>
+  <si>
+    <t>4.NF.B.4</t>
+  </si>
+  <si>
+    <t>4.NF.C.5</t>
+  </si>
+  <si>
+    <t>4.NF.C.6</t>
+  </si>
+  <si>
+    <t>4.NF.C.7</t>
+  </si>
+  <si>
+    <t>5.NBT.A.1</t>
+  </si>
+  <si>
+    <t>5.NBT.A.2</t>
+  </si>
+  <si>
+    <t>5.NBT.A.3</t>
+  </si>
+  <si>
+    <t>5.NBT.A.4</t>
+  </si>
+  <si>
+    <t>5.NBT.B.5</t>
+  </si>
+  <si>
+    <t>5.NBT.B.6</t>
+  </si>
+  <si>
+    <t>5.NBT.B.7</t>
+  </si>
+  <si>
+    <t>5.MD.A.1</t>
+  </si>
+  <si>
+    <t>5.MD.B.2</t>
+  </si>
+  <si>
+    <t>5.MD.C.3</t>
+  </si>
+  <si>
+    <t>5.MD.C.4</t>
+  </si>
+  <si>
+    <t>5.MD.C.5</t>
+  </si>
+  <si>
+    <t>5.G.A.1</t>
+  </si>
+  <si>
+    <t>5.G.A.2</t>
+  </si>
+  <si>
+    <t>5.G.B.3</t>
+  </si>
+  <si>
+    <t>5.G.B.4</t>
+  </si>
+  <si>
+    <t>5.NF.A.1</t>
+  </si>
+  <si>
+    <t>5.NF.A.2</t>
+  </si>
+  <si>
+    <t>5.NF.B.3</t>
+  </si>
+  <si>
+    <t>5.NF.B.4</t>
+  </si>
+  <si>
+    <t>5.NF.B.5</t>
+  </si>
+  <si>
+    <t>5.NF.B.6</t>
+  </si>
+  <si>
+    <t>5.NF.B.7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1418,6 +1744,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1427,7 +1761,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1653,87 +1987,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1835,32 +2088,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1870,31 +2129,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1914,36 +2180,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5866,9 +6136,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5906,9 +6176,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5941,9 +6211,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5976,9 +6263,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6152,1537 +6456,1367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V131"/>
+  <dimension ref="A2:U131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:B37"/>
+    <sheetView topLeftCell="A105" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" customWidth="1"/>
-    <col min="4" max="4" width="100" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17" customWidth="1"/>
-    <col min="18" max="18" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="102" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" customWidth="1"/>
+    <col min="17" max="17" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="13" t="s">
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="36"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="13" t="s">
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="37"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="13" t="s">
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="E7" s="36"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="13" t="s">
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="E8" s="37"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="13" t="s">
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="36"/>
-    </row>
-    <row r="10" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="13" t="s">
+    </row>
+    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="37"/>
-    </row>
-    <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
-      <c r="B11" s="14" t="s">
+    </row>
+    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27"/>
+      <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="38"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="12" t="s">
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="13" t="s">
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="E13" s="37"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="13" t="s">
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="36"/>
-    </row>
-    <row r="15" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="13" t="s">
+    </row>
+    <row r="15" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="E15" s="37"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="13" t="s">
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="39"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
-      <c r="B17" s="14" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="E17" s="38"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="12" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="E18" s="35"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="13" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="36"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="13" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
-      <c r="B21" s="14" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27"/>
+      <c r="B21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="15" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="12" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="E22" s="35"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="13" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="1" t="s">
+      <c r="C23" s="21"/>
+      <c r="D23" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="E23" s="39"/>
-    </row>
-    <row r="24" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33"/>
-      <c r="B24" s="14" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="28"/>
+      <c r="B24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="10" t="s">
+      <c r="C24" s="22"/>
+      <c r="D24" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="E24" s="38"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
         <v>2</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="13" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="1" t="s">
+      <c r="C26" s="24"/>
+      <c r="D26" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="13" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="1" t="s">
+      <c r="C27" s="24"/>
+      <c r="D27" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="E27" s="37"/>
-    </row>
-    <row r="28" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="32"/>
-      <c r="B28" s="14" t="s">
+    </row>
+    <row r="28" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="27"/>
+      <c r="B28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="15" t="s">
+      <c r="C28" s="25"/>
+      <c r="D28" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="E28" s="38"/>
-    </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="12" t="s">
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E29" s="35"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="13" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="1" t="s">
+      <c r="C30" s="24"/>
+      <c r="D30" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="E30" s="39"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="13" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="1" t="s">
+      <c r="C31" s="24"/>
+      <c r="D31" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="39"/>
-    </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="13" t="s">
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="1" t="s">
+      <c r="C32" s="24"/>
+      <c r="D32" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="E32" s="36"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="13" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+      <c r="B33" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="1" t="s">
+      <c r="C33" s="24"/>
+      <c r="D33" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="E33" s="37"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="13" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="27"/>
+      <c r="B34" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="1" t="s">
+      <c r="C34" s="24"/>
+      <c r="D34" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="E34" s="39"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="13" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="27"/>
+      <c r="B35" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="1" t="s">
+      <c r="C35" s="24"/>
+      <c r="D35" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="E35" s="39"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="13" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="27"/>
+      <c r="B36" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="11" t="s">
+      <c r="C36" s="24"/>
+      <c r="D36" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="E36" s="39"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="32"/>
-      <c r="B37" s="14" t="s">
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="27"/>
+      <c r="B37" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="15" t="s">
+      <c r="C37" s="25"/>
+      <c r="D37" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="E37" s="38"/>
-    </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
-      <c r="B38" s="12" t="s">
+    </row>
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="27"/>
+      <c r="B38" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="E38" s="35"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
-      <c r="B39" s="13" t="s">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="27"/>
+      <c r="B39" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="1" t="s">
+      <c r="C39" s="21"/>
+      <c r="D39" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="E39" s="39"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
-      <c r="B40" s="13" t="s">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="27"/>
+      <c r="B40" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="1" t="s">
+      <c r="C40" s="21"/>
+      <c r="D40" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="E40" s="39"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
-      <c r="B41" s="13" t="s">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="27"/>
+      <c r="B41" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="1" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="E41" s="36"/>
-    </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
-      <c r="B42" s="13" t="s">
+    </row>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="27"/>
+      <c r="B42" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="1" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="E42" s="37"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="13" t="s">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="27"/>
+      <c r="B43" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="1" t="s">
+      <c r="C43" s="21"/>
+      <c r="D43" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="E43" s="36"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="13" t="s">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="27"/>
+      <c r="B44" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="1" t="s">
+      <c r="C44" s="21"/>
+      <c r="D44" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
-      <c r="B45" s="13" t="s">
+    </row>
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="27"/>
+      <c r="B45" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="1" t="s">
+      <c r="C45" s="21"/>
+      <c r="D45" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="32"/>
-      <c r="B46" s="13" t="s">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="27"/>
+      <c r="B46" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="1" t="s">
+      <c r="C46" s="21"/>
+      <c r="D46" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="E46" s="37"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32"/>
-      <c r="B47" s="14" t="s">
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="27"/>
+      <c r="B47" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="15" t="s">
+      <c r="C47" s="22"/>
+      <c r="D47" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="E47" s="38"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
-      <c r="B48" s="12" t="s">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="27"/>
+      <c r="B48" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="E48" s="35"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
-      <c r="B49" s="13" t="s">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="27"/>
+      <c r="B49" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="1" t="s">
+      <c r="C49" s="21"/>
+      <c r="D49" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="E49" s="39"/>
-    </row>
-    <row r="50" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="33"/>
-      <c r="B50" s="14" t="s">
+    </row>
+    <row r="50" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="28"/>
+      <c r="B50" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="10" t="s">
+      <c r="C50" s="22"/>
+      <c r="D50" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="E50" s="38"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="31">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="26">
         <v>3</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="E51" s="35"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="32"/>
-      <c r="B52" s="13" t="s">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="27"/>
+      <c r="B52" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="26"/>
-      <c r="D52" s="1" t="s">
+      <c r="C52" s="21"/>
+      <c r="D52" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="E52" s="39"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="32"/>
-      <c r="B53" s="13" t="s">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="27"/>
+      <c r="B53" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="1" t="s">
+      <c r="C53" s="21"/>
+      <c r="D53" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="E53" s="39"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="32"/>
-      <c r="B54" s="13" t="s">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="27"/>
+      <c r="B54" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="1" t="s">
+      <c r="C54" s="21"/>
+      <c r="D54" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="E54" s="36"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="32"/>
-      <c r="B55" s="13" t="s">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="27"/>
+      <c r="B55" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="26"/>
-      <c r="D55" s="1" t="s">
+      <c r="C55" s="21"/>
+      <c r="D55" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="E55" s="37"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="32"/>
-      <c r="B56" s="13" t="s">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="27"/>
+      <c r="B56" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="26"/>
-      <c r="D56" s="1" t="s">
+      <c r="C56" s="21"/>
+      <c r="D56" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="E56" s="36"/>
-    </row>
-    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="32"/>
-      <c r="B57" s="13" t="s">
+    </row>
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="27"/>
+      <c r="B57" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="26"/>
-      <c r="D57" s="1" t="s">
+      <c r="C57" s="21"/>
+      <c r="D57" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
-      <c r="B58" s="13" t="s">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="27"/>
+      <c r="B58" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="1" t="s">
+      <c r="C58" s="21"/>
+      <c r="D58" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="E58" s="37"/>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="32"/>
-      <c r="B59" s="14" t="s">
+    </row>
+    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="27"/>
+      <c r="B59" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="27"/>
-      <c r="D59" s="15" t="s">
+      <c r="C59" s="22"/>
+      <c r="D59" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="38"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="32"/>
-      <c r="B60" s="12" t="s">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="27"/>
+      <c r="B60" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="E60" s="35"/>
-    </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="32"/>
-      <c r="B61" s="13" t="s">
+    </row>
+    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="27"/>
+      <c r="B61" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="26"/>
-      <c r="D61" s="1" t="s">
+      <c r="C61" s="21"/>
+      <c r="D61" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="E61" s="39"/>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="32"/>
-      <c r="B62" s="14" t="s">
+    </row>
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="27"/>
+      <c r="B62" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="27"/>
-      <c r="D62" s="15" t="s">
+      <c r="C62" s="22"/>
+      <c r="D62" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E62" s="38"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="32"/>
-      <c r="B63" s="12" t="s">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="27"/>
+      <c r="B63" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="D63" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="E63" s="35"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="32"/>
-      <c r="B64" s="13" t="s">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="27"/>
+      <c r="B64" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="26"/>
-      <c r="D64" s="1" t="s">
+      <c r="C64" s="21"/>
+      <c r="D64" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="E64" s="39"/>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="32"/>
-      <c r="B65" s="14" t="s">
+    </row>
+    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="27"/>
+      <c r="B65" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="27"/>
-      <c r="D65" s="15" t="s">
+      <c r="C65" s="22"/>
+      <c r="D65" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="E65" s="38"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="32"/>
-      <c r="B66" s="12" t="s">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="27"/>
+      <c r="B66" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D66" s="16" t="s">
+      <c r="D66" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="E66" s="35"/>
-    </row>
-    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="32"/>
-      <c r="B67" s="13" t="s">
+    </row>
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="27"/>
+      <c r="B67" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="26"/>
-      <c r="D67" s="1" t="s">
+      <c r="C67" s="21"/>
+      <c r="D67" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="E67" s="36"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="32"/>
-      <c r="B68" s="13" t="s">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="27"/>
+      <c r="B68" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C68" s="26"/>
-      <c r="D68" s="1" t="s">
+      <c r="C68" s="21"/>
+      <c r="D68" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="E68" s="37"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="32"/>
-      <c r="B69" s="13" t="s">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="27"/>
+      <c r="B69" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="1" t="s">
+      <c r="C69" s="21"/>
+      <c r="D69" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="E69" s="36"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="32"/>
-      <c r="B70" s="13" t="s">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="27"/>
+      <c r="B70" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="1" t="s">
+      <c r="C70" s="21"/>
+      <c r="D70" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="E70" s="37"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="32"/>
-      <c r="B71" s="13" t="s">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="27"/>
+      <c r="B71" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C71" s="26"/>
-      <c r="D71" s="1" t="s">
+      <c r="C71" s="21"/>
+      <c r="D71" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="E71" s="39"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="32"/>
-      <c r="B72" s="13" t="s">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="27"/>
+      <c r="B72" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="1" t="s">
+      <c r="C72" s="21"/>
+      <c r="D72" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="E72" s="36"/>
-    </row>
-    <row r="73" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="32"/>
-      <c r="B73" s="14" t="s">
+    </row>
+    <row r="73" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="27"/>
+      <c r="B73" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C73" s="27"/>
-      <c r="D73" s="15" t="s">
+      <c r="C73" s="22"/>
+      <c r="D73" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="E73" s="4"/>
-    </row>
-    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="32"/>
-      <c r="B74" s="12" t="s">
+    </row>
+    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="27"/>
+      <c r="B74" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="C74" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D74" s="16" t="s">
+      <c r="D74" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E74" s="35"/>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="33"/>
-      <c r="B75" s="14" t="s">
+    </row>
+    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="28"/>
+      <c r="B75" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C75" s="27"/>
-      <c r="D75" s="10" t="s">
+      <c r="C75" s="22"/>
+      <c r="D75" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="E75" s="38"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="31">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="26">
         <v>4</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C76" s="25" t="s">
+      <c r="C76" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="E76" s="35"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="32"/>
-      <c r="B77" s="13" t="s">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="27"/>
+      <c r="B77" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C77" s="26"/>
-      <c r="D77" s="1" t="s">
+      <c r="C77" s="21"/>
+      <c r="D77" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="E77" s="39"/>
-    </row>
-    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="32"/>
-      <c r="B78" s="13" t="s">
+    </row>
+    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="27"/>
+      <c r="B78" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C78" s="26"/>
-      <c r="D78" s="1" t="s">
+      <c r="C78" s="21"/>
+      <c r="D78" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="E78" s="36"/>
-    </row>
-    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="32"/>
-      <c r="B79" s="13" t="s">
+    </row>
+    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="27"/>
+      <c r="B79" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C79" s="26"/>
-      <c r="D79" s="1" t="s">
+      <c r="C79" s="21"/>
+      <c r="D79" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="32"/>
-      <c r="B80" s="14" t="s">
+    </row>
+    <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="27"/>
+      <c r="B80" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C80" s="27"/>
-      <c r="D80" s="15" t="s">
+      <c r="C80" s="22"/>
+      <c r="D80" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="32"/>
-      <c r="B81" s="12" t="s">
+    </row>
+    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="27"/>
+      <c r="B81" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="25" t="s">
+      <c r="C81" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="D81" s="16" t="s">
+      <c r="D81" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="E81" s="35"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="32"/>
-      <c r="B82" s="13" t="s">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="27"/>
+      <c r="B82" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="26"/>
-      <c r="D82" s="1" t="s">
+      <c r="C82" s="21"/>
+      <c r="D82" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="E82" s="39"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="32"/>
-      <c r="B83" s="13" t="s">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="27"/>
+      <c r="B83" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="26"/>
-      <c r="D83" s="1" t="s">
+      <c r="C83" s="21"/>
+      <c r="D83" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="E83" s="36"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="32"/>
-      <c r="B84" s="13" t="s">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="27"/>
+      <c r="B84" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C84" s="26"/>
-      <c r="D84" s="1" t="s">
+      <c r="C84" s="21"/>
+      <c r="D84" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="E84" s="37"/>
-    </row>
-    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="32"/>
-      <c r="B85" s="13" t="s">
+    </row>
+    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="27"/>
+      <c r="B85" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C85" s="26"/>
-      <c r="D85" s="1" t="s">
+      <c r="C85" s="21"/>
+      <c r="D85" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="E85" s="39"/>
-    </row>
-    <row r="86" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="32"/>
-      <c r="B86" s="14" t="s">
+    </row>
+    <row r="86" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="27"/>
+      <c r="B86" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C86" s="27"/>
-      <c r="D86" s="15" t="s">
+      <c r="C86" s="22"/>
+      <c r="D86" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="E86" s="38"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="32"/>
-      <c r="B87" s="12" t="s">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="27"/>
+      <c r="B87" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C87" s="25" t="s">
+      <c r="C87" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="D87" s="16" t="s">
+      <c r="D87" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="E87" s="35"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="32"/>
-      <c r="B88" s="13" t="s">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="27"/>
+      <c r="B88" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C88" s="26"/>
-      <c r="D88" s="1" t="s">
+      <c r="C88" s="21"/>
+      <c r="D88" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="E88" s="36"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="32"/>
-      <c r="B89" s="13" t="s">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="27"/>
+      <c r="B89" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C89" s="26"/>
-      <c r="D89" s="1" t="s">
+      <c r="C89" s="21"/>
+      <c r="D89" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="E89" s="37"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="32"/>
-      <c r="B90" s="13" t="s">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="27"/>
+      <c r="B90" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C90" s="26"/>
-      <c r="D90" s="1" t="s">
+      <c r="C90" s="21"/>
+      <c r="D90" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="E90" s="36"/>
-    </row>
-    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="32"/>
-      <c r="B91" s="13" t="s">
+    </row>
+    <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="27"/>
+      <c r="B91" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C91" s="26"/>
-      <c r="D91" s="1" t="s">
+      <c r="C91" s="21"/>
+      <c r="D91" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="E91" s="37"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="32"/>
-      <c r="B92" s="13" t="s">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="27"/>
+      <c r="B92" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C92" s="26"/>
-      <c r="D92" s="1" t="s">
+      <c r="C92" s="21"/>
+      <c r="D92" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="E92" s="39"/>
-    </row>
-    <row r="93" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="32"/>
-      <c r="B93" s="14" t="s">
+    </row>
+    <row r="93" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="27"/>
+      <c r="B93" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C93" s="27"/>
-      <c r="D93" s="15" t="s">
+      <c r="C93" s="22"/>
+      <c r="D93" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="E93" s="38"/>
-    </row>
-    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="32"/>
-      <c r="B94" s="12" t="s">
+    </row>
+    <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="27"/>
+      <c r="B94" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C94" s="25" t="s">
+      <c r="C94" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D94" s="16" t="s">
+      <c r="D94" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="E94" s="35"/>
-    </row>
-    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="32"/>
-      <c r="B95" s="13" t="s">
+    </row>
+    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="27"/>
+      <c r="B95" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C95" s="26"/>
-      <c r="D95" s="1" t="s">
+      <c r="C95" s="21"/>
+      <c r="D95" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="E95" s="39"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="32"/>
-      <c r="B96" s="13" t="s">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="27"/>
+      <c r="B96" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C96" s="26"/>
-      <c r="D96" s="1" t="s">
+      <c r="C96" s="21"/>
+      <c r="D96" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="E96" s="36"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="32"/>
-      <c r="B97" s="13" t="s">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="27"/>
+      <c r="B97" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C97" s="26"/>
-      <c r="D97" s="1" t="s">
+      <c r="C97" s="21"/>
+      <c r="D97" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="32"/>
-      <c r="B98" s="13" t="s">
+    </row>
+    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="27"/>
+      <c r="B98" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C98" s="26"/>
-      <c r="D98" s="1" t="s">
+      <c r="C98" s="21"/>
+      <c r="D98" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="E98" s="37"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="32"/>
-      <c r="B99" s="13" t="s">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="27"/>
+      <c r="B99" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C99" s="26"/>
-      <c r="D99" s="1" t="s">
+      <c r="C99" s="21"/>
+      <c r="D99" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="E99" s="39"/>
-    </row>
-    <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="32"/>
-      <c r="B100" s="14" t="s">
+    </row>
+    <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="27"/>
+      <c r="B100" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C100" s="27"/>
-      <c r="D100" s="15" t="s">
+      <c r="C100" s="22"/>
+      <c r="D100" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="E100" s="38"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="32"/>
-      <c r="B101" s="12" t="s">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="27"/>
+      <c r="B101" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C101" s="25" t="s">
+      <c r="C101" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D101" s="16" t="s">
+      <c r="D101" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="E101" s="35"/>
-    </row>
-    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="32"/>
-      <c r="B102" s="13" t="s">
+    </row>
+    <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="27"/>
+      <c r="B102" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C102" s="26"/>
-      <c r="D102" s="1" t="s">
+      <c r="C102" s="21"/>
+      <c r="D102" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="E102" s="39"/>
-    </row>
-    <row r="103" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="33"/>
-      <c r="B103" s="14" t="s">
+    </row>
+    <row r="103" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="28"/>
+      <c r="B103" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C103" s="27"/>
-      <c r="D103" s="10" t="s">
+      <c r="C103" s="22"/>
+      <c r="D103" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="E103" s="38"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="31">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="26">
         <v>5</v>
       </c>
-      <c r="B104" s="12" t="s">
+      <c r="B104" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="25" t="s">
+      <c r="C104" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="D104" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="E104" s="35"/>
-    </row>
-    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="32"/>
-      <c r="B105" s="13" t="s">
+    </row>
+    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="27"/>
+      <c r="B105" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C105" s="26"/>
-      <c r="D105" s="1" t="s">
+      <c r="C105" s="21"/>
+      <c r="D105" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="E105" s="36"/>
-    </row>
-    <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="32"/>
-      <c r="B106" s="14" t="s">
+    </row>
+    <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="27"/>
+      <c r="B106" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C106" s="27"/>
-      <c r="D106" s="15" t="s">
+      <c r="C106" s="22"/>
+      <c r="D106" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="E106" s="4"/>
-    </row>
-    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="32"/>
-      <c r="B107" s="12" t="s">
+    </row>
+    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="27"/>
+      <c r="B107" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C107" s="25" t="s">
+      <c r="C107" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="D107" s="16" t="s">
+      <c r="D107" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="E107" s="35"/>
-    </row>
-    <row r="108" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="32"/>
-      <c r="B108" s="13" t="s">
+    </row>
+    <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="27"/>
+      <c r="B108" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C108" s="26"/>
-      <c r="D108" s="1" t="s">
+      <c r="C108" s="21"/>
+      <c r="D108" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="E108" s="39"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="32"/>
-      <c r="B109" s="13" t="s">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="27"/>
+      <c r="B109" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C109" s="26"/>
-      <c r="D109" s="1" t="s">
+      <c r="C109" s="21"/>
+      <c r="D109" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="E109" s="39"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="32"/>
-      <c r="B110" s="13" t="s">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="27"/>
+      <c r="B110" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C110" s="26"/>
-      <c r="D110" s="1" t="s">
+      <c r="C110" s="21"/>
+      <c r="D110" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="E110" s="36"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="32"/>
-      <c r="B111" s="13" t="s">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="27"/>
+      <c r="B111" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C111" s="26"/>
-      <c r="D111" s="1" t="s">
+      <c r="C111" s="21"/>
+      <c r="D111" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="E111" s="37"/>
-    </row>
-    <row r="112" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A112" s="32"/>
-      <c r="B112" s="13" t="s">
+    </row>
+    <row r="112" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="27"/>
+      <c r="B112" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C112" s="26"/>
-      <c r="D112" s="1" t="s">
+      <c r="C112" s="21"/>
+      <c r="D112" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="E112" s="39"/>
-    </row>
-    <row r="113" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="32"/>
-      <c r="B113" s="14" t="s">
+    </row>
+    <row r="113" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="27"/>
+      <c r="B113" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C113" s="27"/>
-      <c r="D113" s="15" t="s">
+      <c r="C113" s="22"/>
+      <c r="D113" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="E113" s="38"/>
-    </row>
-    <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="32"/>
-      <c r="B114" s="12" t="s">
+    </row>
+    <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="27"/>
+      <c r="B114" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C114" s="25" t="s">
+      <c r="C114" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="D114" s="16" t="s">
+      <c r="D114" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="E114" s="35"/>
-    </row>
-    <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="32"/>
-      <c r="B115" s="13" t="s">
+    </row>
+    <row r="115" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="27"/>
+      <c r="B115" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C115" s="26"/>
-      <c r="D115" s="1" t="s">
+      <c r="C115" s="21"/>
+      <c r="D115" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="E115" s="36"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="32"/>
-      <c r="B116" s="13" t="s">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="27"/>
+      <c r="B116" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C116" s="26"/>
-      <c r="D116" s="1" t="s">
+      <c r="C116" s="21"/>
+      <c r="D116" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="E116" s="37"/>
-    </row>
-    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="32"/>
-      <c r="B117" s="13" t="s">
+    </row>
+    <row r="117" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="27"/>
+      <c r="B117" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C117" s="26"/>
-      <c r="D117" s="1" t="s">
+      <c r="C117" s="21"/>
+      <c r="D117" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="E117" s="39"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="32"/>
-      <c r="B118" s="13" t="s">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="27"/>
+      <c r="B118" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C118" s="26"/>
-      <c r="D118" s="1" t="s">
+      <c r="C118" s="21"/>
+      <c r="D118" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="E118" s="39"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="32"/>
-      <c r="B119" s="13" t="s">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="27"/>
+      <c r="B119" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C119" s="26"/>
-      <c r="D119" s="1" t="s">
+      <c r="C119" s="21"/>
+      <c r="D119" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="E119" s="39"/>
-    </row>
-    <row r="120" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="32"/>
-      <c r="B120" s="14" t="s">
+    </row>
+    <row r="120" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="27"/>
+      <c r="B120" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C120" s="27"/>
-      <c r="D120" s="15" t="s">
+      <c r="C120" s="22"/>
+      <c r="D120" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="E120" s="38"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="32"/>
-      <c r="B121" s="12" t="s">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="27"/>
+      <c r="B121" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C121" s="25" t="s">
+      <c r="C121" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D121" s="16" t="s">
+      <c r="D121" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="E121" s="2"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="32"/>
-      <c r="B122" s="13" t="s">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="27"/>
+      <c r="B122" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C122" s="26"/>
-      <c r="D122" s="1" t="s">
+      <c r="C122" s="21"/>
+      <c r="D122" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="E122" s="3"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="32"/>
-      <c r="B123" s="13" t="s">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="27"/>
+      <c r="B123" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C123" s="26"/>
-      <c r="D123" s="1" t="s">
+      <c r="C123" s="21"/>
+      <c r="D123" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="E123" s="37"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="32"/>
-      <c r="B124" s="13" t="s">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="27"/>
+      <c r="B124" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C124" s="26"/>
-      <c r="D124" s="1" t="s">
+      <c r="C124" s="21"/>
+      <c r="D124" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="E124" s="39"/>
-    </row>
-    <row r="125" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="32"/>
-      <c r="B125" s="14" t="s">
+    </row>
+    <row r="125" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="27"/>
+      <c r="B125" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C125" s="27"/>
-      <c r="D125" s="15" t="s">
+      <c r="C125" s="22"/>
+      <c r="D125" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="E125" s="38"/>
-    </row>
-    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="32"/>
-      <c r="B126" s="12" t="s">
+    </row>
+    <row r="126" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="27"/>
+      <c r="B126" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C126" s="25" t="s">
+      <c r="C126" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D126" s="16" t="s">
+      <c r="D126" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="E126" s="35"/>
-    </row>
-    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="32"/>
-      <c r="B127" s="13" t="s">
+    </row>
+    <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="27"/>
+      <c r="B127" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C127" s="26"/>
-      <c r="D127" s="1" t="s">
+      <c r="C127" s="21"/>
+      <c r="D127" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="E127" s="36"/>
-    </row>
-    <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="32"/>
-      <c r="B128" s="13" t="s">
+    </row>
+    <row r="128" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="27"/>
+      <c r="B128" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C128" s="26"/>
-      <c r="D128" s="1" t="s">
+      <c r="C128" s="21"/>
+      <c r="D128" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="E128" s="37"/>
-    </row>
-    <row r="129" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="34"/>
-      <c r="B129" s="14" t="s">
+    </row>
+    <row r="129" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="29"/>
+      <c r="B129" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C129" s="27"/>
-      <c r="D129" s="10" t="s">
+      <c r="C129" s="22"/>
+      <c r="D129" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="E129" s="38"/>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="U131" s="17"/>
-      <c r="V131" s="17"/>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T131" s="7"/>
+      <c r="U131" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="E123:E125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="E107:E110"/>
-    <mergeCell ref="E111:E113"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="E116:E120"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="E91:E93"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="E98:E100"/>
-    <mergeCell ref="E101:E103"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="E42:E43"/>
+  <mergeCells count="28">
     <mergeCell ref="C4:C11"/>
     <mergeCell ref="C12:C17"/>
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A4:A24"/>
     <mergeCell ref="A25:A50"/>
     <mergeCell ref="A51:A75"/>
@@ -7819,22 +7953,22 @@
     <hyperlink ref="B111" r:id="rId108" location="CCSS.Math.Content.5.NBT.B.5" display="http://www.corestandards.org/Math/Content/5/NBT/ - CCSS.Math.Content.5.NBT.B.5"/>
     <hyperlink ref="B112" r:id="rId109" location="CCSS.Math.Content.5.NBT.B.6" display="http://www.corestandards.org/Math/Content/5/NBT/ - CCSS.Math.Content.5.NBT.B.6"/>
     <hyperlink ref="B113" r:id="rId110" location="CCSS.Math.Content.5.NBT.B.7" display="http://www.corestandards.org/Math/Content/5/NBT/ - CCSS.Math.Content.5.NBT.B.7"/>
-    <hyperlink ref="B114" r:id="rId111" location="CCSS.Math.Content.5.NF.A.1" display="http://www.corestandards.org/Math/Content/5/NF/ - CCSS.Math.Content.5.NF.A.1"/>
-    <hyperlink ref="B115" r:id="rId112" location="CCSS.Math.Content.5.NF.A.2" display="http://www.corestandards.org/Math/Content/5/NF/ - CCSS.Math.Content.5.NF.A.2"/>
-    <hyperlink ref="B116" r:id="rId113" location="CCSS.Math.Content.5.NF.B.3" display="http://www.corestandards.org/Math/Content/5/NF/ - CCSS.Math.Content.5.NF.B.3"/>
-    <hyperlink ref="B117" r:id="rId114" location="CCSS.Math.Content.5.NF.B.4" display="http://www.corestandards.org/Math/Content/5/NF/ - CCSS.Math.Content.5.NF.B.4"/>
-    <hyperlink ref="B118" r:id="rId115" location="CCSS.Math.Content.5.NF.B.5" display="http://www.corestandards.org/Math/Content/5/NF/ - CCSS.Math.Content.5.NF.B.5"/>
-    <hyperlink ref="B119" r:id="rId116" location="CCSS.Math.Content.5.NF.B.6" display="http://www.corestandards.org/Math/Content/5/NF/ - CCSS.Math.Content.5.NF.B.6"/>
-    <hyperlink ref="B120" r:id="rId117" location="CCSS.Math.Content.5.NF.B.7" display="http://www.corestandards.org/Math/Content/5/NF/ - CCSS.Math.Content.5.NF.B.7"/>
-    <hyperlink ref="B121" r:id="rId118" location="CCSS.Math.Content.5.MD.A.1" display="http://www.corestandards.org/Math/Content/5/MD/ - CCSS.Math.Content.5.MD.A.1"/>
-    <hyperlink ref="B122" r:id="rId119" location="CCSS.Math.Content.5.MD.B.2" display="http://www.corestandards.org/Math/Content/5/MD/ - CCSS.Math.Content.5.MD.B.2"/>
-    <hyperlink ref="B123" r:id="rId120" location="CCSS.Math.Content.5.MD.C.3" display="http://www.corestandards.org/Math/Content/5/MD/ - CCSS.Math.Content.5.MD.C.3"/>
-    <hyperlink ref="B124" r:id="rId121" location="CCSS.Math.Content.5.MD.C.4" display="http://www.corestandards.org/Math/Content/5/MD/ - CCSS.Math.Content.5.MD.C.4"/>
-    <hyperlink ref="B125" r:id="rId122" location="CCSS.Math.Content.5.MD.C.5" display="http://www.corestandards.org/Math/Content/5/MD/ - CCSS.Math.Content.5.MD.C.5"/>
-    <hyperlink ref="B126" r:id="rId123" location="CCSS.Math.Content.5.G.A.1" display="http://www.corestandards.org/Math/Content/5/G/ - CCSS.Math.Content.5.G.A.1"/>
-    <hyperlink ref="B127" r:id="rId124" location="CCSS.Math.Content.5.G.A.2" display="http://www.corestandards.org/Math/Content/5/G/ - CCSS.Math.Content.5.G.A.2"/>
-    <hyperlink ref="B128" r:id="rId125" location="CCSS.Math.Content.5.G.B.3" display="http://www.corestandards.org/Math/Content/5/G/ - CCSS.Math.Content.5.G.B.3"/>
-    <hyperlink ref="B129" r:id="rId126" location="CCSS.Math.Content.5.G.B.4" display="http://www.corestandards.org/Math/Content/5/G/ - CCSS.Math.Content.5.G.B.4"/>
+    <hyperlink ref="B121" r:id="rId111" location="CCSS.Math.Content.5.MD.A.1" display="http://www.corestandards.org/Math/Content/5/MD/ - CCSS.Math.Content.5.MD.A.1"/>
+    <hyperlink ref="B122" r:id="rId112" location="CCSS.Math.Content.5.MD.B.2" display="http://www.corestandards.org/Math/Content/5/MD/ - CCSS.Math.Content.5.MD.B.2"/>
+    <hyperlink ref="B123" r:id="rId113" location="CCSS.Math.Content.5.MD.C.3" display="http://www.corestandards.org/Math/Content/5/MD/ - CCSS.Math.Content.5.MD.C.3"/>
+    <hyperlink ref="B124" r:id="rId114" location="CCSS.Math.Content.5.MD.C.4" display="http://www.corestandards.org/Math/Content/5/MD/ - CCSS.Math.Content.5.MD.C.4"/>
+    <hyperlink ref="B125" r:id="rId115" location="CCSS.Math.Content.5.MD.C.5" display="http://www.corestandards.org/Math/Content/5/MD/ - CCSS.Math.Content.5.MD.C.5"/>
+    <hyperlink ref="B126" r:id="rId116" location="CCSS.Math.Content.5.G.A.1" display="http://www.corestandards.org/Math/Content/5/G/ - CCSS.Math.Content.5.G.A.1"/>
+    <hyperlink ref="B127" r:id="rId117" location="CCSS.Math.Content.5.G.A.2" display="http://www.corestandards.org/Math/Content/5/G/ - CCSS.Math.Content.5.G.A.2"/>
+    <hyperlink ref="B128" r:id="rId118" location="CCSS.Math.Content.5.G.B.3" display="http://www.corestandards.org/Math/Content/5/G/ - CCSS.Math.Content.5.G.B.3"/>
+    <hyperlink ref="B129" r:id="rId119" location="CCSS.Math.Content.5.G.B.4" display="http://www.corestandards.org/Math/Content/5/G/ - CCSS.Math.Content.5.G.B.4"/>
+    <hyperlink ref="B120" r:id="rId120" location="CCSS.Math.Content.5.NF.B.7" display="http://www.corestandards.org/Math/Content/5/NF/ - CCSS.Math.Content.5.NF.B.7"/>
+    <hyperlink ref="B119" r:id="rId121" location="CCSS.Math.Content.5.NF.B.6" display="http://www.corestandards.org/Math/Content/5/NF/ - CCSS.Math.Content.5.NF.B.6"/>
+    <hyperlink ref="B118" r:id="rId122" location="CCSS.Math.Content.5.NF.B.5" display="http://www.corestandards.org/Math/Content/5/NF/ - CCSS.Math.Content.5.NF.B.5"/>
+    <hyperlink ref="B117" r:id="rId123" location="CCSS.Math.Content.5.NF.B.4" display="http://www.corestandards.org/Math/Content/5/NF/ - CCSS.Math.Content.5.NF.B.4"/>
+    <hyperlink ref="B116" r:id="rId124" location="CCSS.Math.Content.5.NF.B.3" display="http://www.corestandards.org/Math/Content/5/NF/ - CCSS.Math.Content.5.NF.B.3"/>
+    <hyperlink ref="B115" r:id="rId125" location="CCSS.Math.Content.5.NF.A.2" display="http://www.corestandards.org/Math/Content/5/NF/ - CCSS.Math.Content.5.NF.A.2"/>
+    <hyperlink ref="B114" r:id="rId126" location="CCSS.Math.Content.5.NF.A.1" display="http://www.corestandards.org/Math/Content/5/NF/ - CCSS.Math.Content.5.NF.A.1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7844,8 +7978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I129"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7853,1205 +7987,1205 @@
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.28515625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="3.28515625" style="9" customWidth="1"/>
     <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D4" s="19"/>
+      <c r="D4" s="9"/>
       <c r="E4"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="21" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="9"/>
+      <c r="E5"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="12" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="19"/>
-      <c r="E5"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="22" t="s">
+    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="9"/>
+      <c r="E6"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D6" s="19"/>
-      <c r="E6"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="21" t="s">
+    <row r="7" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="9"/>
+      <c r="E7"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="12" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="19"/>
-      <c r="E7"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="22" t="s">
+    <row r="8" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="9"/>
+      <c r="E8"/>
+      <c r="F8" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8" s="11" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="19"/>
-      <c r="E8"/>
-      <c r="F8" s="20" t="s">
+    <row r="9" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="9"/>
+      <c r="E9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="9"/>
+      <c r="E10"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="9"/>
+      <c r="E11"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="9"/>
+      <c r="E12"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="9"/>
+      <c r="E13"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="G8"/>
-      <c r="H8" s="21" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="9"/>
+      <c r="E15"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="9"/>
+      <c r="E16"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="9"/>
+      <c r="E17"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="12" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="9" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="19"/>
-      <c r="E9"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="22" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="19"/>
-      <c r="E10"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="21" t="s">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="9"/>
+      <c r="E18"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="9"/>
+      <c r="E19"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="9"/>
+      <c r="E20"/>
+      <c r="F20" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="9"/>
+      <c r="E21"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="9"/>
+      <c r="E22"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="9"/>
+      <c r="E23"/>
+      <c r="F23" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="9"/>
+      <c r="E24"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="9"/>
+      <c r="E25"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="9"/>
+      <c r="E26"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="9"/>
+      <c r="E27"/>
+      <c r="F27" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="9"/>
+      <c r="E28"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="9"/>
+      <c r="E29"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D30" s="9"/>
+      <c r="E30"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D31" s="9"/>
+      <c r="E31"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="9"/>
+      <c r="E32"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="9"/>
+      <c r="E33"/>
+      <c r="F33" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D34" s="9"/>
+      <c r="E34"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D35" s="9"/>
+      <c r="E35"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="9"/>
+      <c r="E36"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D38" s="9"/>
+      <c r="E38"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D39" s="9"/>
+      <c r="E39"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D40" s="9"/>
+      <c r="E40"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="9"/>
+      <c r="E41"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="9"/>
+      <c r="E42"/>
+      <c r="F42" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="9"/>
+      <c r="E43"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D44" s="9"/>
+      <c r="E44"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="9"/>
+      <c r="E45"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D46" s="9"/>
+      <c r="E46"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="9"/>
+      <c r="E47"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D48" s="9"/>
+      <c r="E48"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D49" s="9"/>
+      <c r="E49"/>
+      <c r="F49" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D50" s="9"/>
+      <c r="E50"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D51" s="9"/>
+      <c r="E51"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D52" s="9"/>
+      <c r="E52"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D53" s="9"/>
+      <c r="E53"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="9"/>
+      <c r="E54"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D55" s="9"/>
+      <c r="E55"/>
+      <c r="F55" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D56" s="9"/>
+      <c r="E56"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="57" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="9"/>
+      <c r="E57"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D58" s="9"/>
+      <c r="E58"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="11" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="11" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="19"/>
-      <c r="E11"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="22" t="s">
+    <row r="59" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="9"/>
+      <c r="E59"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="60" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="9"/>
+      <c r="E60"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="61" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="9"/>
+      <c r="E61"/>
+      <c r="F61" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="62" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D62" s="9"/>
+      <c r="E62"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="63" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D63" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E63"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="64" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D64" s="9"/>
+      <c r="E64"/>
+      <c r="F64" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D65" s="9"/>
+      <c r="E65"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="E66"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D67" s="9"/>
+      <c r="E67"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D68" s="9"/>
+      <c r="E68"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D69" s="9"/>
+      <c r="E69"/>
+      <c r="F69" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D70" s="9"/>
+      <c r="E70"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D71" s="9"/>
+      <c r="E71"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="14" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D72" s="9"/>
+      <c r="E72"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D73" s="9"/>
+      <c r="E73"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D74" s="9"/>
+      <c r="E74"/>
+      <c r="F74" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D75" s="9"/>
+      <c r="E75"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D76" s="9"/>
+      <c r="E76"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D77" s="9"/>
+      <c r="E77"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D78" s="9"/>
+      <c r="E78"/>
+      <c r="F78" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="G78" s="7"/>
+      <c r="H78" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D79" s="9"/>
+      <c r="E79"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D80" s="9"/>
+      <c r="E80"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="81" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D81" s="9"/>
+      <c r="E81"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="82" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D82" s="9"/>
+      <c r="E82"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="83" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D83" s="9"/>
+      <c r="E83"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="84" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D84" s="9"/>
+      <c r="E84"/>
+      <c r="F84" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="G84" s="7"/>
+      <c r="H84" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="85" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D85" s="9"/>
+      <c r="E85"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="86" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D86" s="9"/>
+      <c r="E86"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="87" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D87" s="9"/>
+      <c r="E87"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="88" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D88" s="9"/>
+      <c r="E88"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="89" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D89" s="9"/>
+      <c r="E89"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="90" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D90" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E90"/>
+      <c r="F90" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="G90" s="7"/>
+      <c r="H90" s="12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="91" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D91" s="9"/>
+      <c r="E91"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="92" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D92" s="9"/>
+      <c r="E92"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="14" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="93" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D93" s="9"/>
+      <c r="E93"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="94" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D94" s="9"/>
+      <c r="E94"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="95" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D95" s="9"/>
+      <c r="E95"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="96" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D96" s="9"/>
+      <c r="E96"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="97" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D97" s="9"/>
+      <c r="E97"/>
+      <c r="F97" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="G97" s="7"/>
+      <c r="H97" s="13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="98" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D98" s="9"/>
+      <c r="E98"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="99" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D99" s="9"/>
+      <c r="E99"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="14" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="100" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D100" s="9"/>
+      <c r="E100"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="101" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D101" s="9"/>
+      <c r="E101"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="102" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D102" s="9"/>
+      <c r="E102"/>
+      <c r="F102" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="G102" s="7"/>
+      <c r="H102" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="103" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D103" s="9"/>
+      <c r="E103"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="104" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D104" s="9"/>
+      <c r="E104"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="105" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D105" s="9"/>
+      <c r="E105"/>
+      <c r="F105" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="G105" s="7"/>
+      <c r="H105" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="106" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D106" s="9"/>
+      <c r="E106"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="107" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D107" s="9"/>
+      <c r="E107"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="108" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D108" s="9"/>
+      <c r="E108"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="109" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D109" s="9"/>
+      <c r="E109"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="110" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D110" s="9"/>
+      <c r="E110"/>
+      <c r="F110" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="G110" s="7"/>
+      <c r="H110" s="12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="111" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D111" s="9"/>
+      <c r="E111"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="112" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D112" s="9"/>
+      <c r="E112"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="113" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D113" s="9"/>
+      <c r="E113"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="114" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D114" s="9"/>
+      <c r="E114"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="115" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D115" s="9"/>
+      <c r="E115"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="116" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D116" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E116"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="117" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D117" s="9"/>
+      <c r="E117"/>
+      <c r="F117" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="G117" s="7"/>
+      <c r="H117" s="14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="118" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D118" s="9"/>
+      <c r="E118"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="119" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D119" s="9"/>
+      <c r="E119"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="120" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D120" s="9"/>
+      <c r="E120"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="121" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D121" s="9"/>
+      <c r="E121"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="122" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D122" s="9"/>
+      <c r="E122"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="13" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="19"/>
-      <c r="E12"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="23" t="s">
+    <row r="123" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D123" s="9"/>
+      <c r="E123"/>
+      <c r="F123" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="G123" s="7"/>
+      <c r="H123" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="124" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D124" s="9"/>
+      <c r="E124"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="125" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D125" s="9"/>
+      <c r="E125"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="126" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D126" s="9"/>
+      <c r="E126"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="127" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D127" s="9"/>
+      <c r="E127"/>
+      <c r="F127" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="G127" s="7"/>
+      <c r="H127" s="12" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="19"/>
-      <c r="E13"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="21" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="E14"/>
-      <c r="F14" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="22" t="s">
+    <row r="128" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D128" s="9"/>
+      <c r="E128"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="129" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D129" s="9"/>
+      <c r="E129"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="12" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="19"/>
-      <c r="E15"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="21" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="19"/>
-      <c r="E16"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="24" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="19"/>
-      <c r="E17"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="22" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D18" s="19"/>
-      <c r="E18"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="19"/>
-      <c r="E19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="22" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="19"/>
-      <c r="E20"/>
-      <c r="F20" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="19"/>
-      <c r="E21"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="23" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="19"/>
-      <c r="E22"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="19"/>
-      <c r="E23"/>
-      <c r="F23" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="24" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="19"/>
-      <c r="E24"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="22" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="19"/>
-      <c r="E25"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="23" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="19"/>
-      <c r="E26"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="23" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="19"/>
-      <c r="E27"/>
-      <c r="F27" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="21" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="28" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="19"/>
-      <c r="E28"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="22" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D29" s="19"/>
-      <c r="E29"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D30" s="19"/>
-      <c r="E30"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="24" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D31" s="19"/>
-      <c r="E31"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="24" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="32" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="19"/>
-      <c r="E32"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="22" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="33" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="19"/>
-      <c r="E33"/>
-      <c r="F33" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="21" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D34" s="19"/>
-      <c r="E34"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="24" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D35" s="19"/>
-      <c r="E35"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="24" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="36" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="19"/>
-      <c r="E36"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="24" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="37" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="E37"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="22" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D38" s="19"/>
-      <c r="E38"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D39" s="19"/>
-      <c r="E39"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="24" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D40" s="19"/>
-      <c r="E40"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="24" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="41" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="19"/>
-      <c r="E41"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="22" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="42" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="19"/>
-      <c r="E42"/>
-      <c r="F42" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="21" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="43" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="19"/>
-      <c r="E43"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="22" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D44" s="19"/>
-      <c r="E44"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="21" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="45" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="19"/>
-      <c r="E45"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="22" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D46" s="19"/>
-      <c r="E46"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="21" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="47" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="19"/>
-      <c r="E47"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="22" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="48" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="19"/>
-      <c r="E48"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="49" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="19"/>
-      <c r="E49"/>
-      <c r="F49" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="G49" s="17"/>
-      <c r="H49" s="24" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="50" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="19"/>
-      <c r="E50"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="22" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D51" s="19"/>
-      <c r="E51"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D52" s="19"/>
-      <c r="E52"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="24" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D53" s="19"/>
-      <c r="E53"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="24" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="54" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="19"/>
-      <c r="E54"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="22" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="55" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="19"/>
-      <c r="E55"/>
-      <c r="F55" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="G55" s="17"/>
-      <c r="H55" s="21" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="56" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="19"/>
-      <c r="E56"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="22" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="57" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="19"/>
-      <c r="E57"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="23" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D58" s="19"/>
-      <c r="E58"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="21" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="59" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="19"/>
-      <c r="E59"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="22" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="60" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="19"/>
-      <c r="E60"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="61" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D61" s="19"/>
-      <c r="E61"/>
-      <c r="F61" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="G61" s="17"/>
-      <c r="H61" s="24" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="62" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D62" s="19"/>
-      <c r="E62"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="22" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="63" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="E63"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="64" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="19"/>
-      <c r="E64"/>
-      <c r="F64" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="G64" s="17"/>
-      <c r="H64" s="24" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="19"/>
-      <c r="E65"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="22" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D66" s="19"/>
-      <c r="E66"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D67" s="19"/>
-      <c r="E67"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="22" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D68" s="19"/>
-      <c r="E68"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="21" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D69" s="19"/>
-      <c r="E69"/>
-      <c r="F69" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="G69" s="17"/>
-      <c r="H69" s="22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D70" s="19"/>
-      <c r="E70"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="21" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D71" s="19"/>
-      <c r="E71"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D72" s="19"/>
-      <c r="E72"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="22" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D73" s="19"/>
-      <c r="E73"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="23" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D74" s="19"/>
-      <c r="E74"/>
-      <c r="F74" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="G74" s="17"/>
-      <c r="H74" s="21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D75" s="19"/>
-      <c r="E75"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="22" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D76" s="19"/>
-      <c r="E76"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D77" s="19"/>
-      <c r="E77"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="24" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D78" s="19"/>
-      <c r="E78"/>
-      <c r="F78" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="G78" s="17"/>
-      <c r="H78" s="22" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D79" s="19"/>
-      <c r="E79"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="23" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D80" s="19"/>
-      <c r="E80"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="23" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="81" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D81" s="19"/>
-      <c r="E81"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="82" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D82" s="19"/>
-      <c r="E82"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="24" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="83" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D83" s="19"/>
-      <c r="E83"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="22" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="84" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D84" s="19"/>
-      <c r="E84"/>
-      <c r="F84" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="G84" s="17"/>
-      <c r="H84" s="21" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="85" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D85" s="19"/>
-      <c r="E85"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="24" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="86" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D86" s="19"/>
-      <c r="E86"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="22" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="87" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D87" s="19"/>
-      <c r="E87"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="88" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D88" s="19"/>
-      <c r="E88"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="22" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="89" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D89" s="19"/>
-      <c r="E89"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="21" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="90" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D90" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="E90"/>
-      <c r="F90" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="G90" s="17"/>
-      <c r="H90" s="22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="91" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D91" s="19"/>
-      <c r="E91"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="21" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="92" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D92" s="19"/>
-      <c r="E92"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="93" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D93" s="19"/>
-      <c r="E93"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="22" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="94" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D94" s="19"/>
-      <c r="E94"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="95" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D95" s="19"/>
-      <c r="E95"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="24" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="96" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D96" s="19"/>
-      <c r="E96"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="22" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="97" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D97" s="19"/>
-      <c r="E97"/>
-      <c r="F97" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="G97" s="17"/>
-      <c r="H97" s="23" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="98" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D98" s="19"/>
-      <c r="E98"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="21" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="99" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D99" s="19"/>
-      <c r="E99"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="100" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D100" s="19"/>
-      <c r="E100"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="22" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="101" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D101" s="19"/>
-      <c r="E101"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="102" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D102" s="19"/>
-      <c r="E102"/>
-      <c r="F102" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="G102" s="17"/>
-      <c r="H102" s="24" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="103" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D103" s="19"/>
-      <c r="E103"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="17"/>
-      <c r="H103" s="22" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="104" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D104" s="19"/>
-      <c r="E104"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="105" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D105" s="19"/>
-      <c r="E105"/>
-      <c r="F105" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="G105" s="17"/>
-      <c r="H105" s="22" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="106" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D106" s="19"/>
-      <c r="E106"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="107" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D107" s="19"/>
-      <c r="E107"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="17"/>
-      <c r="H107" s="21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="108" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D108" s="19"/>
-      <c r="E108"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="24" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="109" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D109" s="19"/>
-      <c r="E109"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="24" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="110" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D110" s="19"/>
-      <c r="E110"/>
-      <c r="F110" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="G110" s="17"/>
-      <c r="H110" s="22" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="111" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D111" s="19"/>
-      <c r="E111"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="21" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="112" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D112" s="19"/>
-      <c r="E112"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="24" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="113" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D113" s="19"/>
-      <c r="E113"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="17"/>
-      <c r="H113" s="22" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="114" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D114" s="19"/>
-      <c r="E114"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="17"/>
-      <c r="H114" s="21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="115" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D115" s="19"/>
-      <c r="E115"/>
-      <c r="F115" s="19"/>
-      <c r="G115" s="17"/>
-      <c r="H115" s="22" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="116" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D116" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="E116"/>
-      <c r="F116" s="19"/>
-      <c r="G116" s="17"/>
-      <c r="H116" s="21" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="117" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D117" s="19"/>
-      <c r="E117"/>
-      <c r="F117" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="G117" s="17"/>
-      <c r="H117" s="24" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="118" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D118" s="19"/>
-      <c r="E118"/>
-      <c r="F118" s="19"/>
-      <c r="G118" s="17"/>
-      <c r="H118" s="24" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="119" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D119" s="19"/>
-      <c r="E119"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="17"/>
-      <c r="H119" s="24" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="120" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D120" s="19"/>
-      <c r="E120"/>
-      <c r="F120" s="19"/>
-      <c r="G120" s="17"/>
-      <c r="H120" s="22" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="121" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D121" s="19"/>
-      <c r="E121"/>
-      <c r="F121" s="19"/>
-      <c r="G121" s="17"/>
-      <c r="H121" s="23" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="122" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D122" s="19"/>
-      <c r="E122"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="17"/>
-      <c r="H122" s="23" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="123" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D123" s="19"/>
-      <c r="E123"/>
-      <c r="F123" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="G123" s="17"/>
-      <c r="H123" s="21" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="124" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D124" s="19"/>
-      <c r="E124"/>
-      <c r="F124" s="19"/>
-      <c r="G124" s="17"/>
-      <c r="H124" s="24" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="125" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D125" s="19"/>
-      <c r="E125"/>
-      <c r="F125" s="19"/>
-      <c r="G125" s="17"/>
-      <c r="H125" s="22" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="126" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D126" s="19"/>
-      <c r="E126"/>
-      <c r="F126" s="19"/>
-      <c r="G126" s="17"/>
-      <c r="H126" s="21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="127" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D127" s="19"/>
-      <c r="E127"/>
-      <c r="F127" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="G127" s="17"/>
-      <c r="H127" s="22" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="128" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D128" s="19"/>
-      <c r="E128"/>
-      <c r="F128" s="19"/>
-      <c r="G128" s="17"/>
-      <c r="H128" s="21" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="129" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D129" s="19"/>
-      <c r="E129"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="17"/>
-      <c r="H129" s="22" t="s">
-        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -9220,218 +9354,1233 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:M33"/>
+  <dimension ref="C7:M80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
-        <v>299</v>
-      </c>
-      <c r="G5" t="s">
-        <v>300</v>
-      </c>
-      <c r="I5" t="s">
-        <v>301</v>
-      </c>
-      <c r="K5" t="s">
-        <v>316</v>
-      </c>
-      <c r="M5" t="s">
-        <v>317</v>
-      </c>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
     </row>
     <row r="9" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E10" s="12" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="15" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+    </row>
+    <row r="22" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="L25" s="9"/>
+      <c r="M25" s="15" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="16" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="L27" s="9"/>
+      <c r="M27" s="16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="L30" s="9"/>
+      <c r="M30" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="L31" s="9"/>
+      <c r="M31" s="16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="L32" s="9"/>
+      <c r="M32" s="17" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+    </row>
+    <row r="34" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+    </row>
+    <row r="38" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+    </row>
+    <row r="40" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+    </row>
+    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="H41" s="9"/>
+      <c r="I41" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="J41" s="9"/>
+      <c r="K41" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="L41" s="9"/>
+      <c r="M41" s="15" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="H42" s="9"/>
+      <c r="I42" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J42" s="9"/>
+      <c r="K42" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+    </row>
+    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+    </row>
+    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+    </row>
+    <row r="45" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+    </row>
+    <row r="46" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="H46" s="9"/>
+      <c r="I46" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="J46" s="9"/>
+      <c r="K46" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="L46" s="9"/>
+      <c r="M46" s="16" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="F47" s="9"/>
+      <c r="G47" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="H47" s="9"/>
+      <c r="I47" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+    </row>
+    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="H49" s="9"/>
+      <c r="I49" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="J49" s="9"/>
+      <c r="K49" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="L49" s="9"/>
+      <c r="M49" s="16" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="H50" s="9"/>
+      <c r="I50" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J50" s="9"/>
+      <c r="K50" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="L50" s="9"/>
+      <c r="M50" s="16" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="J51" s="9"/>
+      <c r="K51" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="L51" s="9"/>
+      <c r="M51" s="17" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+    </row>
+    <row r="53" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="H53" s="9"/>
+      <c r="I53" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+    </row>
+    <row r="54" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+    </row>
+    <row r="56" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F57" s="9"/>
+      <c r="G57" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="H57" s="9"/>
+      <c r="I57" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="J57" s="9"/>
+      <c r="K57" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="L57" s="9"/>
+      <c r="M57" s="15" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="F58" s="9"/>
+      <c r="G58" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="H58" s="9"/>
+      <c r="I58" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="J58" s="9"/>
+      <c r="K58" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="L58" s="9"/>
+      <c r="M58" s="16" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E11" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="I12" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="I13" s="13" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="D59" s="9"/>
+      <c r="E59" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="F59" s="9"/>
+      <c r="G59" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="16" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="17" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+    </row>
+    <row r="64" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+    </row>
+    <row r="65" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="J65" s="9"/>
+      <c r="K65" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="L65" s="9"/>
+      <c r="M65" s="15" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="66" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="J66" s="9"/>
+      <c r="K66" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="L66" s="9"/>
+      <c r="M66" s="16" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="67" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+    </row>
+    <row r="68" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+    </row>
+    <row r="69" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="L69" s="9"/>
+      <c r="M69" s="16" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="70" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="19" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="15" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E16" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="19" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E21" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="22" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="24" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E25" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E26" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E27" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E28" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E29" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="G31" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="G32" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G33" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="L70" s="9"/>
+      <c r="M70" s="16" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="71" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="16" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="72" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="73" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="17" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="74" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+    </row>
+    <row r="75" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+    </row>
+    <row r="76" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+    </row>
+    <row r="77" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+    </row>
+    <row r="78" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+    </row>
+    <row r="79" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+    </row>
+    <row r="80" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9465,21 +10614,104 @@
     <hyperlink ref="M11" r:id="rId28" location="CCSS.Math.Content.5.OA.A.2" display="http://www.corestandards.org/Math/Content/5/OA/ - CCSS.Math.Content.5.OA.A.2"/>
     <hyperlink ref="M15" r:id="rId29" location="CCSS.Math.Content.5.OA.B.3" display="http://www.corestandards.org/Math/Content/5/OA/ - CCSS.Math.Content.5.OA.B.3"/>
     <hyperlink ref="E25" r:id="rId30" location="CCSS.Math.Content.1.NBT.A.1" display="http://www.corestandards.org/Math/Content/1/NBT/ - CCSS.Math.Content.1.NBT.A.1"/>
-    <hyperlink ref="E26" r:id="rId31" location="CCSS.Math.Content.1.NBT.B.2" display="http://www.corestandards.org/Math/Content/1/NBT/ - CCSS.Math.Content.1.NBT.B.2"/>
-    <hyperlink ref="E27" r:id="rId32" location="CCSS.Math.Content.1.NBT.B.3" display="http://www.corestandards.org/Math/Content/1/NBT/ - CCSS.Math.Content.1.NBT.B.3"/>
-    <hyperlink ref="E28" r:id="rId33" location="CCSS.Math.Content.1.NBT.C.4" display="http://www.corestandards.org/Math/Content/1/NBT/ - CCSS.Math.Content.1.NBT.C.4"/>
-    <hyperlink ref="E29" r:id="rId34" location="CCSS.Math.Content.1.NBT.C.5" display="http://www.corestandards.org/Math/Content/1/NBT/ - CCSS.Math.Content.1.NBT.C.5"/>
-    <hyperlink ref="E30" r:id="rId35" location="CCSS.Math.Content.1.NBT.C.6" display="http://www.corestandards.org/Math/Content/1/NBT/ - CCSS.Math.Content.1.NBT.C.6"/>
+    <hyperlink ref="E30" r:id="rId31" location="CCSS.Math.Content.1.NBT.B.2" display="http://www.corestandards.org/Math/Content/1/NBT/ - CCSS.Math.Content.1.NBT.B.2"/>
+    <hyperlink ref="E31" r:id="rId32" location="CCSS.Math.Content.1.NBT.B.3" display="http://www.corestandards.org/Math/Content/1/NBT/ - CCSS.Math.Content.1.NBT.B.3"/>
+    <hyperlink ref="E36" r:id="rId33" location="CCSS.Math.Content.1.NBT.C.4" display="http://www.corestandards.org/Math/Content/1/NBT/ - CCSS.Math.Content.1.NBT.C.4"/>
+    <hyperlink ref="E37" r:id="rId34" location="CCSS.Math.Content.1.NBT.C.5" display="http://www.corestandards.org/Math/Content/1/NBT/ - CCSS.Math.Content.1.NBT.C.5"/>
+    <hyperlink ref="E38" r:id="rId35" location="CCSS.Math.Content.1.NBT.C.6" display="http://www.corestandards.org/Math/Content/1/NBT/ - CCSS.Math.Content.1.NBT.C.6"/>
     <hyperlink ref="G25" r:id="rId36" location="CCSS.Math.Content.2.NBT.A.1" display="http://www.corestandards.org/Math/Content/2/NBT/ - CCSS.Math.Content.2.NBT.A.1"/>
     <hyperlink ref="G26" r:id="rId37" location="CCSS.Math.Content.2.NBT.A.2" display="http://www.corestandards.org/Math/Content/2/NBT/ - CCSS.Math.Content.2.NBT.A.2"/>
     <hyperlink ref="G27" r:id="rId38" location="CCSS.Math.Content.2.NBT.A.3" display="http://www.corestandards.org/Math/Content/2/NBT/ - CCSS.Math.Content.2.NBT.A.3"/>
     <hyperlink ref="G28" r:id="rId39" location="CCSS.Math.Content.2.NBT.A.4" display="http://www.corestandards.org/Math/Content/2/NBT/ - CCSS.Math.Content.2.NBT.A.4"/>
-    <hyperlink ref="G29" r:id="rId40" location="CCSS.Math.Content.2.NBT.B.5" display="http://www.corestandards.org/Math/Content/2/NBT/ - CCSS.Math.Content.2.NBT.B.5"/>
-    <hyperlink ref="G30" r:id="rId41" location="CCSS.Math.Content.2.NBT.B.6" display="http://www.corestandards.org/Math/Content/2/NBT/ - CCSS.Math.Content.2.NBT.B.6"/>
-    <hyperlink ref="G31" r:id="rId42" location="CCSS.Math.Content.2.NBT.B.7" display="http://www.corestandards.org/Math/Content/2/NBT/ - CCSS.Math.Content.2.NBT.B.7"/>
-    <hyperlink ref="G32" r:id="rId43" location="CCSS.Math.Content.2.NBT.B.8" display="http://www.corestandards.org/Math/Content/2/NBT/ - CCSS.Math.Content.2.NBT.B.8"/>
-    <hyperlink ref="G33" r:id="rId44" location="CCSS.Math.Content.2.NBT.B.9" display="http://www.corestandards.org/Math/Content/2/NBT/ - CCSS.Math.Content.2.NBT.B.9"/>
+    <hyperlink ref="G30" r:id="rId40" location="CCSS.Math.Content.2.NBT.B.5" display="http://www.corestandards.org/Math/Content/2/NBT/ - CCSS.Math.Content.2.NBT.B.5"/>
+    <hyperlink ref="G31" r:id="rId41" location="CCSS.Math.Content.2.NBT.B.6" display="http://www.corestandards.org/Math/Content/2/NBT/ - CCSS.Math.Content.2.NBT.B.6"/>
+    <hyperlink ref="G32" r:id="rId42" location="CCSS.Math.Content.2.NBT.B.7" display="http://www.corestandards.org/Math/Content/2/NBT/ - CCSS.Math.Content.2.NBT.B.7"/>
+    <hyperlink ref="G33" r:id="rId43" location="CCSS.Math.Content.2.NBT.B.8" display="http://www.corestandards.org/Math/Content/2/NBT/ - CCSS.Math.Content.2.NBT.B.8"/>
+    <hyperlink ref="G34" r:id="rId44" location="CCSS.Math.Content.2.NBT.B.9" display="http://www.corestandards.org/Math/Content/2/NBT/ - CCSS.Math.Content.2.NBT.B.9"/>
+    <hyperlink ref="I25" r:id="rId45" location="CCSS.Math.Content.3.NBT.A.1" display="http://www.corestandards.org/Math/Content/3/NBT/ - CCSS.Math.Content.3.NBT.A.1"/>
+    <hyperlink ref="I26" r:id="rId46" location="CCSS.Math.Content.3.NBT.A.2" display="http://www.corestandards.org/Math/Content/3/NBT/ - CCSS.Math.Content.3.NBT.A.2"/>
+    <hyperlink ref="I27" r:id="rId47" location="CCSS.Math.Content.3.NBT.A.3" display="http://www.corestandards.org/Math/Content/3/NBT/ - CCSS.Math.Content.3.NBT.A.3"/>
+    <hyperlink ref="K25" r:id="rId48" location="CCSS.Math.Content.4.NBT.A.1" display="http://www.corestandards.org/Math/Content/4/NBT/ - CCSS.Math.Content.4.NBT.A.1"/>
+    <hyperlink ref="K26" r:id="rId49" location="CCSS.Math.Content.4.NBT.A.2" display="http://www.corestandards.org/Math/Content/4/NBT/ - CCSS.Math.Content.4.NBT.A.2"/>
+    <hyperlink ref="K27" r:id="rId50" location="CCSS.Math.Content.4.NBT.A.3" display="http://www.corestandards.org/Math/Content/4/NBT/ - CCSS.Math.Content.4.NBT.A.3"/>
+    <hyperlink ref="K30" r:id="rId51" location="CCSS.Math.Content.4.NBT.B.4" display="http://www.corestandards.org/Math/Content/4/NBT/ - CCSS.Math.Content.4.NBT.B.4"/>
+    <hyperlink ref="K31" r:id="rId52" location="CCSS.Math.Content.4.NBT.B.5" display="http://www.corestandards.org/Math/Content/4/NBT/ - CCSS.Math.Content.4.NBT.B.5"/>
+    <hyperlink ref="K32" r:id="rId53" location="CCSS.Math.Content.4.NBT.B.6" display="http://www.corestandards.org/Math/Content/4/NBT/ - CCSS.Math.Content.4.NBT.B.6"/>
+    <hyperlink ref="M25" r:id="rId54" location="CCSS.Math.Content.5.NBT.A.1" display="http://www.corestandards.org/Math/Content/5/NBT/ - CCSS.Math.Content.5.NBT.A.1"/>
+    <hyperlink ref="M26" r:id="rId55" location="CCSS.Math.Content.5.NBT.A.2" display="http://www.corestandards.org/Math/Content/5/NBT/ - CCSS.Math.Content.5.NBT.A.2"/>
+    <hyperlink ref="M27" r:id="rId56" location="CCSS.Math.Content.5.NBT.A.3" display="http://www.corestandards.org/Math/Content/5/NBT/ - CCSS.Math.Content.5.NBT.A.3"/>
+    <hyperlink ref="M28" r:id="rId57" location="CCSS.Math.Content.5.NBT.A.4" display="http://www.corestandards.org/Math/Content/5/NBT/ - CCSS.Math.Content.5.NBT.A.4"/>
+    <hyperlink ref="M30" r:id="rId58" location="CCSS.Math.Content.5.NBT.B.5" display="http://www.corestandards.org/Math/Content/5/NBT/ - CCSS.Math.Content.5.NBT.B.5"/>
+    <hyperlink ref="M31" r:id="rId59" location="CCSS.Math.Content.5.NBT.B.6" display="http://www.corestandards.org/Math/Content/5/NBT/ - CCSS.Math.Content.5.NBT.B.6"/>
+    <hyperlink ref="M32" r:id="rId60" location="CCSS.Math.Content.5.NBT.B.7" display="http://www.corestandards.org/Math/Content/5/NBT/ - CCSS.Math.Content.5.NBT.B.7"/>
+    <hyperlink ref="E41" r:id="rId61" location="CCSS.Math.Content.1.MD.A.1" display="http://www.corestandards.org/Math/Content/1/MD/ - CCSS.Math.Content.1.MD.A.1"/>
+    <hyperlink ref="E42" r:id="rId62" location="CCSS.Math.Content.1.MD.A.2" display="http://www.corestandards.org/Math/Content/1/MD/ - CCSS.Math.Content.1.MD.A.2"/>
+    <hyperlink ref="E46" r:id="rId63" location="CCSS.Math.Content.1.MD.B.3" display="http://www.corestandards.org/Math/Content/1/MD/ - CCSS.Math.Content.1.MD.B.3"/>
+    <hyperlink ref="E47" r:id="rId64" location="CCSS.Math.Content.1.MD.C.4" display="http://www.corestandards.org/Math/Content/1/MD/ - CCSS.Math.Content.1.MD.C.4"/>
+    <hyperlink ref="G41" r:id="rId65" location="CCSS.Math.Content.2.MD.A.1" display="http://www.corestandards.org/Math/Content/2/MD/ - CCSS.Math.Content.2.MD.A.1"/>
+    <hyperlink ref="G42" r:id="rId66" location="CCSS.Math.Content.2.MD.A.2" display="http://www.corestandards.org/Math/Content/2/MD/ - CCSS.Math.Content.2.MD.A.2"/>
+    <hyperlink ref="G43" r:id="rId67" location="CCSS.Math.Content.2.MD.A.3" display="http://www.corestandards.org/Math/Content/2/MD/ - CCSS.Math.Content.2.MD.A.3"/>
+    <hyperlink ref="G44" r:id="rId68" location="CCSS.Math.Content.2.MD.A.4" display="http://www.corestandards.org/Math/Content/2/MD/ - CCSS.Math.Content.2.MD.A.4"/>
+    <hyperlink ref="G46" r:id="rId69" location="CCSS.Math.Content.2.MD.B.5" display="http://www.corestandards.org/Math/Content/2/MD/ - CCSS.Math.Content.2.MD.B.5"/>
+    <hyperlink ref="G47" r:id="rId70" location="CCSS.Math.Content.2.MD.B.6" display="http://www.corestandards.org/Math/Content/2/MD/ - CCSS.Math.Content.2.MD.B.6"/>
+    <hyperlink ref="G49" r:id="rId71" location="CCSS.Math.Content.2.MD.C.7" display="http://www.corestandards.org/Math/Content/2/MD/ - CCSS.Math.Content.2.MD.C.7"/>
+    <hyperlink ref="G50" r:id="rId72" location="CCSS.Math.Content.2.MD.C.8" display="http://www.corestandards.org/Math/Content/2/MD/ - CCSS.Math.Content.2.MD.C.8"/>
+    <hyperlink ref="G53" r:id="rId73" location="CCSS.Math.Content.2.MD.D.9" display="http://www.corestandards.org/Math/Content/2/MD/ - CCSS.Math.Content.2.MD.D.9"/>
+    <hyperlink ref="G54" r:id="rId74" location="CCSS.Math.Content.2.MD.D.10" display="http://www.corestandards.org/Math/Content/2/MD/ - CCSS.Math.Content.2.MD.D.10"/>
+    <hyperlink ref="I41" r:id="rId75" location="CCSS.Math.Content.3.MD.A.1" display="http://www.corestandards.org/Math/Content/3/MD/ - CCSS.Math.Content.3.MD.A.1"/>
+    <hyperlink ref="I42" r:id="rId76" location="CCSS.Math.Content.3.MD.A.2" display="http://www.corestandards.org/Math/Content/3/MD/ - CCSS.Math.Content.3.MD.A.2"/>
+    <hyperlink ref="I46" r:id="rId77" location="CCSS.Math.Content.3.MD.B.3" display="http://www.corestandards.org/Math/Content/3/MD/ - CCSS.Math.Content.3.MD.B.3"/>
+    <hyperlink ref="I47" r:id="rId78" location="CCSS.Math.Content.3.MD.B.4" display="http://www.corestandards.org/Math/Content/3/MD/ - CCSS.Math.Content.3.MD.B.4"/>
+    <hyperlink ref="I49" r:id="rId79" location="CCSS.Math.Content.3.MD.C.5" display="http://www.corestandards.org/Math/Content/3/MD/ - CCSS.Math.Content.3.MD.C.5"/>
+    <hyperlink ref="I50" r:id="rId80" location="CCSS.Math.Content.3.MD.C.6" display="http://www.corestandards.org/Math/Content/3/MD/ - CCSS.Math.Content.3.MD.C.6"/>
+    <hyperlink ref="I51" r:id="rId81" location="CCSS.Math.Content.3.MD.C.7" display="http://www.corestandards.org/Math/Content/3/MD/ - CCSS.Math.Content.3.MD.C.7"/>
+    <hyperlink ref="I53" r:id="rId82" location="CCSS.Math.Content.3.MD.D.8" display="http://www.corestandards.org/Math/Content/3/MD/ - CCSS.Math.Content.3.MD.D.8"/>
+    <hyperlink ref="K41" r:id="rId83" location="CCSS.Math.Content.4.MD.A.1" display="http://www.corestandards.org/Math/Content/4/MD/ - CCSS.Math.Content.4.MD.A.1"/>
+    <hyperlink ref="K42" r:id="rId84" location="CCSS.Math.Content.4.MD.A.2" display="http://www.corestandards.org/Math/Content/4/MD/ - CCSS.Math.Content.4.MD.A.2"/>
+    <hyperlink ref="K43" r:id="rId85" location="CCSS.Math.Content.4.MD.A.3" display="http://www.corestandards.org/Math/Content/4/MD/ - CCSS.Math.Content.4.MD.A.3"/>
+    <hyperlink ref="K46" r:id="rId86" location="CCSS.Math.Content.4.MD.B.4" display="http://www.corestandards.org/Math/Content/4/MD/ - CCSS.Math.Content.4.MD.B.4"/>
+    <hyperlink ref="K49" r:id="rId87" location="CCSS.Math.Content.4.MD.C.5" display="http://www.corestandards.org/Math/Content/4/MD/ - CCSS.Math.Content.4.MD.C.5"/>
+    <hyperlink ref="K50" r:id="rId88" location="CCSS.Math.Content.4.MD.C.6" display="http://www.corestandards.org/Math/Content/4/MD/ - CCSS.Math.Content.4.MD.C.6"/>
+    <hyperlink ref="K51" r:id="rId89" location="CCSS.Math.Content.4.MD.C.7" display="http://www.corestandards.org/Math/Content/4/MD/ - CCSS.Math.Content.4.MD.C.7"/>
+    <hyperlink ref="M41" r:id="rId90" location="CCSS.Math.Content.5.MD.A.1" display="http://www.corestandards.org/Math/Content/5/MD/ - CCSS.Math.Content.5.MD.A.1"/>
+    <hyperlink ref="M46" r:id="rId91" location="CCSS.Math.Content.5.MD.B.2" display="http://www.corestandards.org/Math/Content/5/MD/ - CCSS.Math.Content.5.MD.B.2"/>
+    <hyperlink ref="M49" r:id="rId92" location="CCSS.Math.Content.5.MD.C.3" display="http://www.corestandards.org/Math/Content/5/MD/ - CCSS.Math.Content.5.MD.C.3"/>
+    <hyperlink ref="M50" r:id="rId93" location="CCSS.Math.Content.5.MD.C.4" display="http://www.corestandards.org/Math/Content/5/MD/ - CCSS.Math.Content.5.MD.C.4"/>
+    <hyperlink ref="M51" r:id="rId94" location="CCSS.Math.Content.5.MD.C.5" display="http://www.corestandards.org/Math/Content/5/MD/ - CCSS.Math.Content.5.MD.C.5"/>
+    <hyperlink ref="E57" r:id="rId95" location="CCSS.Math.Content.1.G.A.1" display="http://www.corestandards.org/Math/Content/1/G/ - CCSS.Math.Content.1.G.A.1"/>
+    <hyperlink ref="E59" r:id="rId96" location="CCSS.Math.Content.1.G.A.3" display="http://www.corestandards.org/Math/Content/1/G/ - CCSS.Math.Content.1.G.A.3"/>
+    <hyperlink ref="G57" r:id="rId97" location="CCSS.Math.Content.2.G.A.1" display="http://www.corestandards.org/Math/Content/2/G/ - CCSS.Math.Content.2.G.A.1"/>
+    <hyperlink ref="G58" r:id="rId98" location="CCSS.Math.Content.2.G.A.2" display="http://www.corestandards.org/Math/Content/2/G/ - CCSS.Math.Content.2.G.A.2"/>
+    <hyperlink ref="G59" r:id="rId99" location="CCSS.Math.Content.2.G.A.3" display="http://www.corestandards.org/Math/Content/2/G/ - CCSS.Math.Content.2.G.A.3"/>
+    <hyperlink ref="I57" r:id="rId100" location="CCSS.Math.Content.3.G.A.1" display="http://www.corestandards.org/Math/Content/3/G/ - CCSS.Math.Content.3.G.A.1"/>
+    <hyperlink ref="I58" r:id="rId101" location="CCSS.Math.Content.3.G.A.2" display="http://www.corestandards.org/Math/Content/3/G/ - CCSS.Math.Content.3.G.A.2"/>
+    <hyperlink ref="K57" r:id="rId102" location="CCSS.Math.Content.4.G.A.1" display="http://www.corestandards.org/Math/Content/4/G/ - CCSS.Math.Content.4.G.A.1"/>
+    <hyperlink ref="K58" r:id="rId103" location="CCSS.Math.Content.4.G.A.2" display="http://www.corestandards.org/Math/Content/4/G/ - CCSS.Math.Content.4.G.A.2"/>
+    <hyperlink ref="K59" r:id="rId104" location="CCSS.Math.Content.4.G.A.3" display="http://www.corestandards.org/Math/Content/4/G/ - CCSS.Math.Content.4.G.A.3"/>
+    <hyperlink ref="M57" r:id="rId105" location="CCSS.Math.Content.5.G.A.1" display="http://www.corestandards.org/Math/Content/5/G/ - CCSS.Math.Content.5.G.A.1"/>
+    <hyperlink ref="M58" r:id="rId106" location="CCSS.Math.Content.5.G.A.2" display="http://www.corestandards.org/Math/Content/5/G/ - CCSS.Math.Content.5.G.A.2"/>
+    <hyperlink ref="M61" r:id="rId107" location="CCSS.Math.Content.5.G.B.3" display="http://www.corestandards.org/Math/Content/5/G/ - CCSS.Math.Content.5.G.B.3"/>
+    <hyperlink ref="M62" r:id="rId108" location="CCSS.Math.Content.5.G.B.4" display="http://www.corestandards.org/Math/Content/5/G/ - CCSS.Math.Content.5.G.B.4"/>
+    <hyperlink ref="I65" r:id="rId109" location="CCSS.Math.Content.3.NF.A.1" display="http://www.corestandards.org/Math/Content/3/NF/ - CCSS.Math.Content.3.NF.A.1"/>
+    <hyperlink ref="I66" r:id="rId110" location="CCSS.Math.Content.3.NF.A.2" display="http://www.corestandards.org/Math/Content/3/NF/ - CCSS.Math.Content.3.NF.A.2"/>
+    <hyperlink ref="I67" r:id="rId111" location="CCSS.Math.Content.3.NF.A.3" display="http://www.corestandards.org/Math/Content/3/NF/ - CCSS.Math.Content.3.NF.A.3"/>
+    <hyperlink ref="K65" r:id="rId112" location="CCSS.Math.Content.4.NF.A.1" display="http://www.corestandards.org/Math/Content/4/NF/ - CCSS.Math.Content.4.NF.A.1"/>
+    <hyperlink ref="K66" r:id="rId113" location="CCSS.Math.Content.4.NF.A.2" display="http://www.corestandards.org/Math/Content/4/NF/ - CCSS.Math.Content.4.NF.A.2"/>
+    <hyperlink ref="K69" r:id="rId114" location="CCSS.Math.Content.4.NF.B.3" display="http://www.corestandards.org/Math/Content/4/NF/ - CCSS.Math.Content.4.NF.B.3"/>
+    <hyperlink ref="K70" r:id="rId115" location="CCSS.Math.Content.4.NF.B.4" display="http://www.corestandards.org/Math/Content/4/NF/ - CCSS.Math.Content.4.NF.B.4"/>
+    <hyperlink ref="K75" r:id="rId116" location="CCSS.Math.Content.4.NF.C.5" display="http://www.corestandards.org/Math/Content/4/NF/ - CCSS.Math.Content.4.NF.C.5"/>
+    <hyperlink ref="K76" r:id="rId117" location="CCSS.Math.Content.4.NF.C.6" display="http://www.corestandards.org/Math/Content/4/NF/ - CCSS.Math.Content.4.NF.C.6"/>
+    <hyperlink ref="K77" r:id="rId118" location="CCSS.Math.Content.4.NF.C.7" display="http://www.corestandards.org/Math/Content/4/NF/ - CCSS.Math.Content.4.NF.C.7"/>
+    <hyperlink ref="M73" r:id="rId119" location="CCSS.Math.Content.5.NF.B.7" display="http://www.corestandards.org/Math/Content/5/NF/ - CCSS.Math.Content.5.NF.B.7"/>
+    <hyperlink ref="M72" r:id="rId120" location="CCSS.Math.Content.5.NF.B.6" display="http://www.corestandards.org/Math/Content/5/NF/ - CCSS.Math.Content.5.NF.B.6"/>
+    <hyperlink ref="M71" r:id="rId121" location="CCSS.Math.Content.5.NF.B.5" display="http://www.corestandards.org/Math/Content/5/NF/ - CCSS.Math.Content.5.NF.B.5"/>
+    <hyperlink ref="M70" r:id="rId122" location="CCSS.Math.Content.5.NF.B.4" display="http://www.corestandards.org/Math/Content/5/NF/ - CCSS.Math.Content.5.NF.B.4"/>
+    <hyperlink ref="M69" r:id="rId123" location="CCSS.Math.Content.5.NF.B.3" display="http://www.corestandards.org/Math/Content/5/NF/ - CCSS.Math.Content.5.NF.B.3"/>
+    <hyperlink ref="M66" r:id="rId124" location="CCSS.Math.Content.5.NF.A.2" display="http://www.corestandards.org/Math/Content/5/NF/ - CCSS.Math.Content.5.NF.A.2"/>
+    <hyperlink ref="M65" r:id="rId125" location="CCSS.Math.Content.5.NF.A.1" display="http://www.corestandards.org/Math/Content/5/NF/ - CCSS.Math.Content.5.NF.A.1"/>
+    <hyperlink ref="E58" r:id="rId126" location="CCSS.Math.Content.1.G.A.2" display="http://www.corestandards.org/Math/Content/1/G/ - CCSS.Math.Content.1.G.A.2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId127"/>
 </worksheet>
 </file>
--- a/Sonstiges/Standards/CCSS-Math.xlsx
+++ b/Sonstiges/Standards/CCSS-Math.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="23715" windowHeight="10035" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="23715" windowHeight="10035" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="426">
   <si>
     <t>CCSS.Math.Content.1.OA.A.1</t>
   </si>
@@ -1714,6 +1714,9 @@
   </si>
   <si>
     <t>5.NF.B.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBT Grade 2 complete </t>
   </si>
 </sst>
 </file>
@@ -2162,36 +2165,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2211,6 +2184,36 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -6107,6 +6110,6264 @@
         <a:xfrm>
           <a:off x="2050473" y="12933751"/>
           <a:ext cx="1407835" cy="9767987"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1019735</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Gerade Verbindung mit Pfeil 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2286000" y="1804147"/>
+          <a:ext cx="1019735" cy="1389529"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>64849</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>81066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>64849</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>113490</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Gerade Verbindung mit Pfeil 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4036977" y="1803672"/>
+          <a:ext cx="0" cy="222924"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>60798</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>97277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>64851</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>129702</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Gerade Verbindung mit Pfeil 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4032926" y="2772383"/>
+          <a:ext cx="4053" cy="231032"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>56744</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>113489</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>60798</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>170234</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Gerade Verbindung mit Pfeil 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4028872" y="3384415"/>
+          <a:ext cx="4054" cy="255351"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68904</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>93224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1013298</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>81065</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Gerade Verbindung mit Pfeil 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4041032" y="1815830"/>
+          <a:ext cx="944394" cy="1138948"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>56745</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>72958</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>60798</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>166181</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Gerade Verbindung mit Pfeil 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4028873" y="3931596"/>
+          <a:ext cx="4053" cy="283723"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>60798</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>93222</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>63229</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>115921</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Gerade Verbindung mit Pfeil 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5751479" y="3364148"/>
+          <a:ext cx="2431" cy="221305"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>67281</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>75392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>67281</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>107816</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Gerade Verbindung mit Pfeil 34"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7444090" y="1797998"/>
+          <a:ext cx="0" cy="222924"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>69713</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>98088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>69713</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>130512</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Gerade Verbindung mit Pfeil 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7446522" y="2011194"/>
+          <a:ext cx="0" cy="222924"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>68092</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>100520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>68092</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>132944</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Gerade Verbindung mit Pfeil 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7444901" y="2204126"/>
+          <a:ext cx="0" cy="222924"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>72958</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>109436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>72958</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133753</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Gerade Verbindung mit Pfeil 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7449767" y="2784542"/>
+          <a:ext cx="0" cy="222924"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>71336</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>109437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>984925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71337</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Gerade Verbindung mit Pfeil 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5762017" y="1832043"/>
+          <a:ext cx="913589" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>69714</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>118355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1015729</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>124029</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Gerade Verbindung mit Pfeil 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5760395" y="1840961"/>
+          <a:ext cx="946015" cy="5674"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>56745</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>117543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>984925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>64852</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Gerade Verbindung mit Pfeil 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5747426" y="1840149"/>
+          <a:ext cx="928180" cy="1694235"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>77011</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>89170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>81063</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>149968</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Gerade Verbindung mit Pfeil 48"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7453820" y="3360096"/>
+          <a:ext cx="4052" cy="648510"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>72957</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>89170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>77010</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>141861</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Gerade Verbindung mit Pfeil 49"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7449766" y="2962883"/>
+          <a:ext cx="4053" cy="449904"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>67282</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>87549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>68904</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>158075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Gerade Verbindung mit Pfeil 52"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7444091" y="2381655"/>
+          <a:ext cx="1622" cy="451526"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>64851</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>105383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>997085</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>113490</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Gerade Verbindung mit Pfeil 54"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4036979" y="3376309"/>
+          <a:ext cx="932234" cy="786319"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>60798</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>60798</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>64851</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>141862</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Gerade Verbindung mit Pfeil 58"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4032926" y="1973904"/>
+          <a:ext cx="4053" cy="843064"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>60797</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>93223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>64851</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>170234</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Gerade Verbindung mit Pfeil 62"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4032925" y="2966936"/>
+          <a:ext cx="4054" cy="474224"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>52691</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>97277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1013298</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>125650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Gerade Verbindung mit Pfeil 65"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4024819" y="2772383"/>
+          <a:ext cx="960607" cy="822799"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85117</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>89171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85117</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>170234</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Gerade Verbindung mit Pfeil 75"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7461926" y="3947809"/>
+          <a:ext cx="0" cy="271563"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>52691</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>136187</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>55123</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133756</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Gerade Verbindung mit Pfeil 78"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4024819" y="3605719"/>
+          <a:ext cx="2432" cy="386675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>83496</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>77011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1009244</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>115924</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="Gerade Verbindung mit Pfeil 80"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7460305" y="1799617"/>
+          <a:ext cx="925748" cy="2365445"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>65660</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>65660</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>77823</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="Gerade Verbindung mit Pfeil 82"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9128596" y="1768005"/>
+          <a:ext cx="0" cy="222924"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>68092</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>68095</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>68092</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>100519</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="Gerade Verbindung mit Pfeil 83"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9131028" y="1981201"/>
+          <a:ext cx="0" cy="222924"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>64851</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>70527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66471</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>125649</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="Gerade Verbindung mit Pfeil 84"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9127787" y="2174133"/>
+          <a:ext cx="1620" cy="626622"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>63230</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>93225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>64850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>124027</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="Gerade Verbindung mit Pfeil 86"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9126166" y="2768331"/>
+          <a:ext cx="1620" cy="626622"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>68904</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>101330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1001138</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>81063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="Gerade Verbindung mit Pfeil 87"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9131840" y="2776436"/>
+          <a:ext cx="932234" cy="575553"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>56745</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1009245</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85117</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="Gerade Verbindung mit Pfeil 90"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9119681" y="1807723"/>
+          <a:ext cx="952500" cy="1548320"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>80251</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>96470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>80251</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>128894</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="Gerade Verbindung mit Pfeil 93"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10744198" y="1819076"/>
+          <a:ext cx="0" cy="222924"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28372</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1005191</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>105383</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="Gerade Verbindung mit Pfeil 94"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2314372" y="4721968"/>
+          <a:ext cx="976819" cy="1179479"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>64851</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>81064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>72957</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>121596</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="Gerade Verbindung mit Pfeil 97"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4036979" y="4717915"/>
+          <a:ext cx="8106" cy="1001138"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>64851</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>93224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68904</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>145915</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="Gerade Verbindung mit Pfeil 100"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4036979" y="5690681"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>72957</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>109436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>984925</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>89170</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="Gerade Verbindung mit Pfeil 103"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4045085" y="4746287"/>
+          <a:ext cx="911968" cy="1138947"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>91602</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>71336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95655</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>132134</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="Gerade Verbindung mit Pfeil 106"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5782283" y="4708187"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>89981</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>94034</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>146726</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="Gerade Verbindung mit Pfeil 107"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5780662" y="4913279"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88360</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>92413</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>157264</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="Gerade Verbindung mit Pfeil 108"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5779041" y="5122423"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>72957</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>105384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>77010</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>121596</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="Gerade Verbindung mit Pfeil 110"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4045085" y="5901448"/>
+          <a:ext cx="4053" cy="993031"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>78632</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>46206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>82685</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>107004</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="Gerade Verbindung mit Pfeil 113"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4050760" y="6819089"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>77011</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>60798</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>81064</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>121596</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="Gerade Verbindung mit Pfeil 114"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4049139" y="7024181"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>77010</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>968712</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85117</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="Gerade Verbindung mit Pfeil 115"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4049138" y="5682574"/>
+          <a:ext cx="891702" cy="1556426"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>69715</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>89981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>73768</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142672</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="119" name="Gerade Verbindung mit Pfeil 118"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5760396" y="5687438"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68094</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>96466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>72147</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>149158</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="Gerade Verbindung mit Pfeil 119"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5758775" y="5892530"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>70526</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>111057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>74579</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>163748</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="Gerade Verbindung mit Pfeil 120"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5761207" y="6105727"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68905</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>89169</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>72958</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>149967</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="Gerade Verbindung mit Pfeil 121"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5759586" y="6282446"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68905</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>97277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1009245</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>105383</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="Gerade Verbindung mit Pfeil 122"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5759586" y="4734128"/>
+          <a:ext cx="940340" cy="1755032"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>73768</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>73768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>77821</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>134566</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="Gerade Verbindung mit Pfeil 125"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7450577" y="4710619"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>72147</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>149158</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="Gerade Verbindung mit Pfeil 126"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7448956" y="4915711"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>77010</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>109436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1001138</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>121596</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="Gerade Verbindung mit Pfeil 127"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7453819" y="5127287"/>
+          <a:ext cx="924128" cy="591766"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>80253</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>108625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>84306</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161316</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="131" name="Gerade Verbindung mit Pfeil 130"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9143189" y="5706082"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>78632</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>115110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>82685</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>167802</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="Gerade Verbindung mit Pfeil 131"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9141568" y="5911174"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>74579</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>78631</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>78632</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>139429</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="Gerade Verbindung mit Pfeil 132"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9137515" y="4715482"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>72958</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>93223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>77011</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>154021</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="Gerade Verbindung mit Pfeil 133"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9135894" y="4920574"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>112679</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>51881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>116732</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>112679</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="135" name="Gerade Verbindung mit Pfeil 134"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10776626" y="4688732"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>111058</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>115111</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>127271</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="Gerade Verbindung mit Pfeil 135"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10775005" y="4893824"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>113490</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>89170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>117543</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>141862</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="137" name="Gerade Verbindung mit Pfeil 136"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10777437" y="5107021"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>105383</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>77010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>109436</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>129701</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="Gerade Verbindung mit Pfeil 137"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10769330" y="5674467"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>103762</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>83495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>107815</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>136187</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="139" name="Gerade Verbindung mit Pfeil 138"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10767709" y="5879559"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>81065</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>101330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1001138</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>121597</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="142" name="Gerade Verbindung mit Pfeil 141"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9144001" y="4738181"/>
+          <a:ext cx="920073" cy="1378086"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85117</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>97277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>980873</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>125649</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="145" name="Gerade Verbindung mit Pfeil 144"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9148053" y="4734128"/>
+          <a:ext cx="895756" cy="409372"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>72957</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>93223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1009244</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>101330</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="148" name="Gerade Verbindung mit Pfeil 147"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7449766" y="4730074"/>
+          <a:ext cx="936287" cy="389107"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>109436</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>105383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>984925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>105383</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="152" name="Gewinkelter Verbinder 151"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5800117" y="4742234"/>
+          <a:ext cx="2561617" cy="579606"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 89874"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>109436</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>111868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>111870</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>113490</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="158" name="Gerade Verbindung mit Pfeil 157"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10773383" y="5328325"/>
+          <a:ext cx="2434" cy="382622"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28372</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>99391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>985631</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>120539</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="160" name="Gerade Verbindung mit Pfeil 159"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1867111" y="7843630"/>
+          <a:ext cx="957259" cy="981931"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>100650</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>75369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104703</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>136167</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="162" name="Gerade Verbindung mit Pfeil 161"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3627621" y="7858655"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>115957</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>985631</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="163" name="Gerade Verbindung mit Pfeil 162"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3644348" y="7835348"/>
+          <a:ext cx="869674" cy="182217"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>83848</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>61644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>87901</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>122442</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="166" name="Gerade Verbindung mit Pfeil 165"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5351587" y="7805883"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>82227</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>86280</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>137034</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="167" name="Gerade Verbindung mit Pfeil 166"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5349966" y="8010975"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>80606</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>94880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>84659</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>155854</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="168" name="Gerade Verbindung mit Pfeil 167"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5348345" y="8220119"/>
+          <a:ext cx="4053" cy="251474"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>87087</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>97972</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>146958</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="169" name="Gerade Verbindung mit Pfeil 168"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3614058" y="8049986"/>
+          <a:ext cx="10885" cy="843643"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>87087</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="172" name="Gerade Verbindung mit Pfeil 171"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3603171" y="8817428"/>
+          <a:ext cx="10887" cy="647701"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>87086</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>996043</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="175" name="Gerade Verbindung mit Pfeil 174"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3614057" y="8833757"/>
+          <a:ext cx="908957" cy="615043"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>83713</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>146958</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="178" name="Gerade Verbindung mit Pfeil 177"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5339443" y="8459605"/>
+          <a:ext cx="7513" cy="434024"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>74216</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>115705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>78269</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>165793</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="180" name="Gerade Verbindung mit Pfeil 179"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5337459" y="8862376"/>
+          <a:ext cx="4053" cy="251474"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>70757</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>74810</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>131730</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="181" name="Gerade Verbindung mit Pfeil 180"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5334000" y="9410699"/>
+          <a:ext cx="4053" cy="251474"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1006929</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="182" name="Gerade Verbindung mit Pfeil 181"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3581400" y="9416143"/>
+          <a:ext cx="952500" cy="816428"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>59871</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>65313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>63924</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>115402</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="184" name="Gerade Verbindung mit Pfeil 183"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5323114" y="10178142"/>
+          <a:ext cx="4053" cy="251474"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>78405</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>66140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>82458</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>116052</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="189" name="Gerade Verbindung mit Pfeil 188"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7028934" y="9395197"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76784</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>69846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>80837</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>130644</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="190" name="Gerade Verbindung mit Pfeil 189"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7027313" y="9600289"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>70757</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>88490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>79217</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="191" name="Gerade Verbindung mit Pfeil 190"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7021286" y="9809433"/>
+          <a:ext cx="8460" cy="444910"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>985157</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="199" name="Gerade Verbindung mit Pfeil 198"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5339443" y="7870371"/>
+          <a:ext cx="908957" cy="1191986"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>979714</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="202" name="Gerade Verbindung mit Pfeil 201"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5339443" y="7892143"/>
+          <a:ext cx="903514" cy="1719944"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>65314</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>985157</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="205" name="Gerade Verbindung mit Pfeil 204"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5328557" y="7881257"/>
+          <a:ext cx="919843" cy="2487386"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>92528</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1006928</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="208" name="Gerade Verbindung mit Pfeil 207"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7043057" y="7881257"/>
+          <a:ext cx="914400" cy="179615"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>83848</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>60697</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>87901</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>121495</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="210" name="Gerade Verbindung mit Pfeil 209"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7034377" y="7843983"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>83848</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>87901</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>154153</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="212" name="Gerade Verbindung mit Pfeil 211"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7034377" y="8850912"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>55833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>83714</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="213" name="Gerade Verbindung mit Pfeil 212"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7032171" y="8029619"/>
+          <a:ext cx="2072" cy="847681"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>92528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>83713</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>145552</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="215" name="Gerade Verbindung mit Pfeil 214"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7026729" y="9040585"/>
+          <a:ext cx="7513" cy="434024"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>996042</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>92529</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="216" name="Gerade Verbindung mit Pfeil 215"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7032171" y="8860971"/>
+          <a:ext cx="914400" cy="179615"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1001485</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>103415</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="217" name="Gerade Verbindung mit Pfeil 216"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7032171" y="9416143"/>
+          <a:ext cx="919843" cy="800101"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>82901</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>44369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>86954</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>105167</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="220" name="Gerade Verbindung mit Pfeil 219"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8720715" y="7827655"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>81280</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>58961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85333</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>119759</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="221" name="Gerade Verbindung mit Pfeil 220"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8719094" y="8032747"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>88344</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>93355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>92397</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>143267</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="222" name="Gerade Verbindung mit Pfeil 221"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8726158" y="9422412"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>86723</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>97061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>90776</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>157859</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="223" name="Gerade Verbindung mit Pfeil 222"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8724537" y="9627504"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>48986</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>97974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>103415</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="224" name="Gerade Verbindung mit Pfeil 223"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8686800" y="8844645"/>
+          <a:ext cx="941614" cy="5441"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>97972</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>963386</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="226" name="Gerade Verbindung mit Pfeil 225"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8735786" y="9416143"/>
+          <a:ext cx="865414" cy="413658"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>87086</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>996043</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>81645</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="229" name="Gerade Verbindung mit Pfeil 228"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8724900" y="7870371"/>
+          <a:ext cx="908957" cy="375560"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>93786</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>82469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>97839</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>132381</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="231" name="Gerade Verbindung mit Pfeil 230"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10418886" y="9411526"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>92165</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>86175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>96218</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>146973</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="232" name="Gerade Verbindung mit Pfeil 231"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10417265" y="9616618"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>996043</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>92530</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="233" name="Gerade Verbindung mit Pfeil 232"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1915886" y="10983686"/>
+          <a:ext cx="919843" cy="408215"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>116506</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>66139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>120559</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>126937</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="236" name="Gerade Verbindung mit Pfeil 235"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3643477" y="10973625"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114885</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>80731</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>118938</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>130644</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="237" name="Gerade Verbindung mit Pfeil 236"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3641856" y="11178717"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>89291</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>98796</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>93344</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>159594</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="238" name="Gerade Verbindung mit Pfeil 237"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5352534" y="11006282"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>87670</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>113388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>91723</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>163301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="239" name="Gerade Verbindung mit Pfeil 238"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5350913" y="11211374"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>100177</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>71581</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104230</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>132379</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="240" name="Gerade Verbindung mit Pfeil 239"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8737991" y="10979067"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>98556</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>86173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>102609</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>136086</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="241" name="Gerade Verbindung mit Pfeil 240"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8736370" y="11184159"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85695</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>137173</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="242" name="Gerade Verbindung mit Pfeil 241"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7032171" y="10983685"/>
+          <a:ext cx="4053" cy="251474"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85696</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>142616</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="243" name="Gerade Verbindung mit Pfeil 242"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10406743" y="10989128"/>
+          <a:ext cx="4053" cy="251474"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>103414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85696</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>164388</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="244" name="Gerade Verbindung mit Pfeil 243"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10406743" y="11794671"/>
+          <a:ext cx="4053" cy="251474"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>103415</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1001486</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>103417</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="247" name="Gerade Verbindung mit Pfeil 246"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3630386" y="11005457"/>
+          <a:ext cx="898071" cy="397331"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>97972</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>996043</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>114303</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="249" name="Gerade Verbindung mit Pfeil 248"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5361215" y="11016343"/>
+          <a:ext cx="898071" cy="397331"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>97973</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>996044</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>103417</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="250" name="Gerade Verbindung mit Pfeil 249"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8735787" y="11005457"/>
+          <a:ext cx="898071" cy="397331"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>87086</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>996042</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>81647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="251" name="Gerade Verbindung mit Pfeil 250"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7037615" y="10989129"/>
+          <a:ext cx="908956" cy="190504"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>92529</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>97973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>103414</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="253" name="Gerade Verbindung mit Pfeil 252"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8730343" y="11397344"/>
+          <a:ext cx="898071" cy="397327"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>43542</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>642258</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>103416</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="256" name="Gerade Verbindung mit Pfeil 255"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1883228" y="12954000"/>
+          <a:ext cx="2286001" cy="598716"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>386442</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>957943</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>108859</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="258" name="Gerade Verbindung mit Pfeil 257"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5649685" y="12594771"/>
+          <a:ext cx="571501" cy="370117"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>105619</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>87910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>109672</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>148708</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="260" name="Gerade Verbindung mit Pfeil 259"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7056148" y="12562939"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>103998</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>102502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>108051</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>163300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="261" name="Gerade Verbindung mit Pfeil 260"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7054527" y="12768031"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>100177</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>82467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104230</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>143265</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="262" name="Gerade Verbindung mit Pfeil 261"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8737991" y="12557496"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>83849</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>93353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>87902</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>143265</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="263" name="Gerade Verbindung mit Pfeil 262"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8721663" y="13341267"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>100177</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>98795</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104230</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>159593</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="264" name="Gerade Verbindung mit Pfeil 263"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10425277" y="12573824"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>100176</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>71582</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104229</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>121494</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="265" name="Gerade Verbindung mit Pfeil 264"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10425276" y="13319496"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>98555</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>75288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>102608</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>125200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="266" name="Gerade Verbindung mit Pfeil 265"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10423655" y="13524588"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>100176</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>82467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104229</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>143265</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="267" name="Gerade Verbindung mit Pfeil 266"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10425276" y="13733153"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>98555</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>97059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>102608</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>157857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="268" name="Gerade Verbindung mit Pfeil 267"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10423655" y="13938245"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>83265</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>59872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>87318</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>120670</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="269" name="Gerade Verbindung mit Pfeil 268"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8721079" y="14483443"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>81644</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>74464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85697</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>135262</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="270" name="Gerade Verbindung mit Pfeil 269"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8719458" y="14688535"/>
+          <a:ext cx="4053" cy="251298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>108856</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>92528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>963385</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>114303</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="271" name="Gerade Verbindung mit Pfeil 270"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7059385" y="12567557"/>
+          <a:ext cx="854529" cy="402775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>87087</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>97972</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>125186</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="273" name="Gerade Verbindung mit Pfeil 272"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8724901" y="12774386"/>
+          <a:ext cx="10885" cy="598714"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>81645</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>70758</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="276" name="Gerade Verbindung mit Pfeil 275"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8719457" y="13547272"/>
+          <a:ext cx="2" cy="947057"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>97971</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>103414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>97974</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="278" name="Gerade Verbindung mit Pfeil 277"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10423071" y="12768943"/>
+          <a:ext cx="3" cy="598714"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>87085</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>985157</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>103419</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="280" name="Gerade Verbindung mit Pfeil 279"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8724899" y="12556671"/>
+          <a:ext cx="898072" cy="2351319"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6490,1320 +12751,1320 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
+      <c r="A4" s="30">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="20" t="s">
         <v>135</v>
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="31" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="21" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="32" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="22" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="31" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="21" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="31" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="21" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="31" t="s">
+      <c r="C9" s="28"/>
+      <c r="D9" s="21" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="31" t="s">
+      <c r="C10" s="28"/>
+      <c r="D10" s="21" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="33" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="23" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="24" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="31" t="s">
+      <c r="C13" s="28"/>
+      <c r="D13" s="21" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="31" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="21" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="28"/>
+      <c r="D15" s="21" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="31" t="s">
+      <c r="C16" s="28"/>
+      <c r="D16" s="21" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="33" t="s">
+      <c r="C17" s="29"/>
+      <c r="D17" s="23" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="24" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="31" t="s">
+      <c r="C19" s="28"/>
+      <c r="D19" s="21" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="31" t="s">
+      <c r="C20" s="28"/>
+      <c r="D20" s="21" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="33" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="23" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="24" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="31" t="s">
+      <c r="C23" s="28"/>
+      <c r="D23" s="21" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="35" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="25" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="26">
+      <c r="A25" s="30">
         <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="20" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="31" t="s">
+      <c r="C26" s="35"/>
+      <c r="D26" s="21" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="31" t="s">
+      <c r="C27" s="35"/>
+      <c r="D27" s="21" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="33" t="s">
+      <c r="C28" s="36"/>
+      <c r="D28" s="23" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="24" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="31" t="s">
+      <c r="C30" s="35"/>
+      <c r="D30" s="21" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="31" t="s">
+      <c r="C31" s="35"/>
+      <c r="D31" s="21" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="31" t="s">
+      <c r="C32" s="35"/>
+      <c r="D32" s="21" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="31" t="s">
+      <c r="C33" s="35"/>
+      <c r="D33" s="21" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="31" t="s">
+      <c r="C34" s="35"/>
+      <c r="D34" s="21" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="31" t="s">
+      <c r="C35" s="35"/>
+      <c r="D35" s="21" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="36" t="s">
+      <c r="C36" s="35"/>
+      <c r="D36" s="26" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="27"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="33" t="s">
+      <c r="C37" s="36"/>
+      <c r="D37" s="23" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="24" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="31" t="s">
+      <c r="C39" s="28"/>
+      <c r="D39" s="21" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="31" t="s">
+      <c r="C40" s="28"/>
+      <c r="D40" s="21" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="31" t="s">
+      <c r="C41" s="28"/>
+      <c r="D41" s="21" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="31" t="s">
+      <c r="C42" s="28"/>
+      <c r="D42" s="21" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="31" t="s">
+      <c r="C43" s="28"/>
+      <c r="D43" s="21" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="31" t="s">
+      <c r="C44" s="28"/>
+      <c r="D44" s="21" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
+      <c r="A45" s="31"/>
       <c r="B45" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="31" t="s">
+      <c r="C45" s="28"/>
+      <c r="D45" s="21" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
+      <c r="A46" s="31"/>
       <c r="B46" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="31" t="s">
+      <c r="C46" s="28"/>
+      <c r="D46" s="21" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="27"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="33" t="s">
+      <c r="C47" s="29"/>
+      <c r="D47" s="23" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
+      <c r="A48" s="31"/>
       <c r="B48" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D48" s="24" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="31" t="s">
+      <c r="C49" s="28"/>
+      <c r="D49" s="21" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="28"/>
+      <c r="A50" s="32"/>
       <c r="B50" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="35" t="s">
+      <c r="C50" s="29"/>
+      <c r="D50" s="25" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="26">
+      <c r="A51" s="30">
         <v>3</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D51" s="30" t="s">
+      <c r="D51" s="20" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="31" t="s">
+      <c r="C52" s="28"/>
+      <c r="D52" s="21" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
+      <c r="A53" s="31"/>
       <c r="B53" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="31" t="s">
+      <c r="C53" s="28"/>
+      <c r="D53" s="21" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
+      <c r="A54" s="31"/>
       <c r="B54" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="31" t="s">
+      <c r="C54" s="28"/>
+      <c r="D54" s="21" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
+      <c r="A55" s="31"/>
       <c r="B55" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="31" t="s">
+      <c r="C55" s="28"/>
+      <c r="D55" s="21" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
+      <c r="A56" s="31"/>
       <c r="B56" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="31" t="s">
+      <c r="C56" s="28"/>
+      <c r="D56" s="21" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="27"/>
+      <c r="A57" s="31"/>
       <c r="B57" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="31" t="s">
+      <c r="C57" s="28"/>
+      <c r="D57" s="21" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
+      <c r="A58" s="31"/>
       <c r="B58" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="31" t="s">
+      <c r="C58" s="28"/>
+      <c r="D58" s="21" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="27"/>
+      <c r="A59" s="31"/>
       <c r="B59" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="33" t="s">
+      <c r="C59" s="29"/>
+      <c r="D59" s="23" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
+      <c r="A60" s="31"/>
       <c r="B60" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D60" s="34" t="s">
+      <c r="D60" s="24" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
+      <c r="A61" s="31"/>
       <c r="B61" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="31" t="s">
+      <c r="C61" s="28"/>
+      <c r="D61" s="21" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="27"/>
+      <c r="A62" s="31"/>
       <c r="B62" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="22"/>
-      <c r="D62" s="33" t="s">
+      <c r="C62" s="29"/>
+      <c r="D62" s="23" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="D63" s="34" t="s">
+      <c r="D63" s="24" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
+      <c r="A64" s="31"/>
       <c r="B64" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="21"/>
-      <c r="D64" s="31" t="s">
+      <c r="C64" s="28"/>
+      <c r="D64" s="21" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="27"/>
+      <c r="A65" s="31"/>
       <c r="B65" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="22"/>
-      <c r="D65" s="33" t="s">
+      <c r="C65" s="29"/>
+      <c r="D65" s="23" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="27"/>
+      <c r="A66" s="31"/>
       <c r="B66" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D66" s="34" t="s">
+      <c r="D66" s="24" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="27"/>
+      <c r="A67" s="31"/>
       <c r="B67" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="21"/>
-      <c r="D67" s="31" t="s">
+      <c r="C67" s="28"/>
+      <c r="D67" s="21" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="27"/>
+      <c r="A68" s="31"/>
       <c r="B68" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C68" s="21"/>
-      <c r="D68" s="31" t="s">
+      <c r="C68" s="28"/>
+      <c r="D68" s="21" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="27"/>
+      <c r="A69" s="31"/>
       <c r="B69" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C69" s="21"/>
-      <c r="D69" s="31" t="s">
+      <c r="C69" s="28"/>
+      <c r="D69" s="21" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="27"/>
+      <c r="A70" s="31"/>
       <c r="B70" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C70" s="21"/>
-      <c r="D70" s="31" t="s">
+      <c r="C70" s="28"/>
+      <c r="D70" s="21" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="27"/>
+      <c r="A71" s="31"/>
       <c r="B71" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C71" s="21"/>
-      <c r="D71" s="31" t="s">
+      <c r="C71" s="28"/>
+      <c r="D71" s="21" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="27"/>
+      <c r="A72" s="31"/>
       <c r="B72" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="21"/>
-      <c r="D72" s="31" t="s">
+      <c r="C72" s="28"/>
+      <c r="D72" s="21" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="27"/>
+      <c r="A73" s="31"/>
       <c r="B73" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C73" s="22"/>
-      <c r="D73" s="33" t="s">
+      <c r="C73" s="29"/>
+      <c r="D73" s="23" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="27"/>
+      <c r="A74" s="31"/>
       <c r="B74" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D74" s="34" t="s">
+      <c r="D74" s="24" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="28"/>
+      <c r="A75" s="32"/>
       <c r="B75" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C75" s="22"/>
-      <c r="D75" s="35" t="s">
+      <c r="C75" s="29"/>
+      <c r="D75" s="25" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="26">
+      <c r="A76" s="30">
         <v>4</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D76" s="30" t="s">
+      <c r="D76" s="20" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="27"/>
+      <c r="A77" s="31"/>
       <c r="B77" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C77" s="21"/>
-      <c r="D77" s="31" t="s">
+      <c r="C77" s="28"/>
+      <c r="D77" s="21" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="27"/>
+      <c r="A78" s="31"/>
       <c r="B78" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C78" s="21"/>
-      <c r="D78" s="31" t="s">
+      <c r="C78" s="28"/>
+      <c r="D78" s="21" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="27"/>
+      <c r="A79" s="31"/>
       <c r="B79" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C79" s="21"/>
-      <c r="D79" s="31" t="s">
+      <c r="C79" s="28"/>
+      <c r="D79" s="21" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="27"/>
+      <c r="A80" s="31"/>
       <c r="B80" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C80" s="22"/>
-      <c r="D80" s="33" t="s">
+      <c r="C80" s="29"/>
+      <c r="D80" s="23" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="27"/>
+      <c r="A81" s="31"/>
       <c r="B81" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D81" s="34" t="s">
+      <c r="D81" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="27"/>
+      <c r="A82" s="31"/>
       <c r="B82" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="21"/>
-      <c r="D82" s="31" t="s">
+      <c r="C82" s="28"/>
+      <c r="D82" s="21" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="27"/>
+      <c r="A83" s="31"/>
       <c r="B83" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="21"/>
-      <c r="D83" s="31" t="s">
+      <c r="C83" s="28"/>
+      <c r="D83" s="21" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="27"/>
+      <c r="A84" s="31"/>
       <c r="B84" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C84" s="21"/>
-      <c r="D84" s="31" t="s">
+      <c r="C84" s="28"/>
+      <c r="D84" s="21" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="27"/>
+      <c r="A85" s="31"/>
       <c r="B85" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C85" s="21"/>
-      <c r="D85" s="31" t="s">
+      <c r="C85" s="28"/>
+      <c r="D85" s="21" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="27"/>
+      <c r="A86" s="31"/>
       <c r="B86" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C86" s="22"/>
-      <c r="D86" s="33" t="s">
+      <c r="C86" s="29"/>
+      <c r="D86" s="23" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="27"/>
+      <c r="A87" s="31"/>
       <c r="B87" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C87" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="D87" s="34" t="s">
+      <c r="D87" s="24" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="27"/>
+      <c r="A88" s="31"/>
       <c r="B88" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C88" s="21"/>
-      <c r="D88" s="31" t="s">
+      <c r="C88" s="28"/>
+      <c r="D88" s="21" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="27"/>
+      <c r="A89" s="31"/>
       <c r="B89" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C89" s="21"/>
-      <c r="D89" s="31" t="s">
+      <c r="C89" s="28"/>
+      <c r="D89" s="21" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="27"/>
+      <c r="A90" s="31"/>
       <c r="B90" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C90" s="21"/>
-      <c r="D90" s="31" t="s">
+      <c r="C90" s="28"/>
+      <c r="D90" s="21" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="27"/>
+      <c r="A91" s="31"/>
       <c r="B91" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C91" s="21"/>
-      <c r="D91" s="31" t="s">
+      <c r="C91" s="28"/>
+      <c r="D91" s="21" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="27"/>
+      <c r="A92" s="31"/>
       <c r="B92" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C92" s="21"/>
-      <c r="D92" s="31" t="s">
+      <c r="C92" s="28"/>
+      <c r="D92" s="21" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="27"/>
+      <c r="A93" s="31"/>
       <c r="B93" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C93" s="22"/>
-      <c r="D93" s="33" t="s">
+      <c r="C93" s="29"/>
+      <c r="D93" s="23" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="27"/>
+      <c r="A94" s="31"/>
       <c r="B94" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="C94" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D94" s="34" t="s">
+      <c r="D94" s="24" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="27"/>
+      <c r="A95" s="31"/>
       <c r="B95" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C95" s="21"/>
-      <c r="D95" s="31" t="s">
+      <c r="C95" s="28"/>
+      <c r="D95" s="21" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="27"/>
+      <c r="A96" s="31"/>
       <c r="B96" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C96" s="21"/>
-      <c r="D96" s="31" t="s">
+      <c r="C96" s="28"/>
+      <c r="D96" s="21" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="27"/>
+      <c r="A97" s="31"/>
       <c r="B97" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C97" s="21"/>
-      <c r="D97" s="31" t="s">
+      <c r="C97" s="28"/>
+      <c r="D97" s="21" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="27"/>
+      <c r="A98" s="31"/>
       <c r="B98" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C98" s="21"/>
-      <c r="D98" s="31" t="s">
+      <c r="C98" s="28"/>
+      <c r="D98" s="21" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="27"/>
+      <c r="A99" s="31"/>
       <c r="B99" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C99" s="21"/>
-      <c r="D99" s="31" t="s">
+      <c r="C99" s="28"/>
+      <c r="D99" s="21" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="27"/>
+      <c r="A100" s="31"/>
       <c r="B100" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C100" s="22"/>
-      <c r="D100" s="33" t="s">
+      <c r="C100" s="29"/>
+      <c r="D100" s="23" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="27"/>
+      <c r="A101" s="31"/>
       <c r="B101" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C101" s="20" t="s">
+      <c r="C101" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D101" s="34" t="s">
+      <c r="D101" s="24" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="27"/>
+      <c r="A102" s="31"/>
       <c r="B102" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C102" s="21"/>
-      <c r="D102" s="31" t="s">
+      <c r="C102" s="28"/>
+      <c r="D102" s="21" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="28"/>
+      <c r="A103" s="32"/>
       <c r="B103" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C103" s="22"/>
-      <c r="D103" s="35" t="s">
+      <c r="C103" s="29"/>
+      <c r="D103" s="25" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="26">
+      <c r="A104" s="30">
         <v>5</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="20" t="s">
+      <c r="C104" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D104" s="30" t="s">
+      <c r="D104" s="20" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="27"/>
+      <c r="A105" s="31"/>
       <c r="B105" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C105" s="21"/>
-      <c r="D105" s="31" t="s">
+      <c r="C105" s="28"/>
+      <c r="D105" s="21" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="27"/>
+      <c r="A106" s="31"/>
       <c r="B106" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C106" s="22"/>
-      <c r="D106" s="33" t="s">
+      <c r="C106" s="29"/>
+      <c r="D106" s="23" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="27"/>
+      <c r="A107" s="31"/>
       <c r="B107" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C107" s="20" t="s">
+      <c r="C107" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D107" s="34" t="s">
+      <c r="D107" s="24" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="27"/>
+    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="31"/>
       <c r="B108" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C108" s="21"/>
-      <c r="D108" s="31" t="s">
+      <c r="C108" s="28"/>
+      <c r="D108" s="21" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="27"/>
+      <c r="A109" s="31"/>
       <c r="B109" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C109" s="21"/>
-      <c r="D109" s="31" t="s">
+      <c r="C109" s="28"/>
+      <c r="D109" s="21" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="27"/>
+      <c r="A110" s="31"/>
       <c r="B110" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C110" s="21"/>
-      <c r="D110" s="31" t="s">
+      <c r="C110" s="28"/>
+      <c r="D110" s="21" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="27"/>
+      <c r="A111" s="31"/>
       <c r="B111" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C111" s="21"/>
-      <c r="D111" s="31" t="s">
+      <c r="C111" s="28"/>
+      <c r="D111" s="21" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A112" s="27"/>
+      <c r="A112" s="31"/>
       <c r="B112" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C112" s="21"/>
-      <c r="D112" s="31" t="s">
+      <c r="C112" s="28"/>
+      <c r="D112" s="21" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="27"/>
+      <c r="A113" s="31"/>
       <c r="B113" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C113" s="22"/>
-      <c r="D113" s="33" t="s">
+      <c r="C113" s="29"/>
+      <c r="D113" s="23" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="27"/>
+      <c r="A114" s="31"/>
       <c r="B114" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C114" s="20" t="s">
+      <c r="C114" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="D114" s="34" t="s">
+      <c r="D114" s="24" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="27"/>
+      <c r="A115" s="31"/>
       <c r="B115" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C115" s="21"/>
-      <c r="D115" s="31" t="s">
+      <c r="C115" s="28"/>
+      <c r="D115" s="21" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="27"/>
+      <c r="A116" s="31"/>
       <c r="B116" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C116" s="21"/>
-      <c r="D116" s="31" t="s">
+      <c r="C116" s="28"/>
+      <c r="D116" s="21" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="27"/>
+      <c r="A117" s="31"/>
       <c r="B117" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C117" s="21"/>
-      <c r="D117" s="31" t="s">
+      <c r="C117" s="28"/>
+      <c r="D117" s="21" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="27"/>
+      <c r="A118" s="31"/>
       <c r="B118" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C118" s="21"/>
-      <c r="D118" s="31" t="s">
+      <c r="C118" s="28"/>
+      <c r="D118" s="21" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="27"/>
+      <c r="A119" s="31"/>
       <c r="B119" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C119" s="21"/>
-      <c r="D119" s="31" t="s">
+      <c r="C119" s="28"/>
+      <c r="D119" s="21" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="27"/>
+      <c r="A120" s="31"/>
       <c r="B120" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C120" s="22"/>
-      <c r="D120" s="33" t="s">
+      <c r="C120" s="29"/>
+      <c r="D120" s="23" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="27"/>
+      <c r="A121" s="31"/>
       <c r="B121" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C121" s="20" t="s">
+      <c r="C121" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D121" s="34" t="s">
+      <c r="D121" s="24" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="27"/>
+      <c r="A122" s="31"/>
       <c r="B122" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C122" s="21"/>
-      <c r="D122" s="31" t="s">
+      <c r="C122" s="28"/>
+      <c r="D122" s="21" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="27"/>
+      <c r="A123" s="31"/>
       <c r="B123" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C123" s="21"/>
-      <c r="D123" s="31" t="s">
+      <c r="C123" s="28"/>
+      <c r="D123" s="21" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="27"/>
+      <c r="A124" s="31"/>
       <c r="B124" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C124" s="21"/>
-      <c r="D124" s="31" t="s">
+      <c r="C124" s="28"/>
+      <c r="D124" s="21" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="27"/>
+      <c r="A125" s="31"/>
       <c r="B125" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C125" s="22"/>
-      <c r="D125" s="33" t="s">
+      <c r="C125" s="29"/>
+      <c r="D125" s="23" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="27"/>
+      <c r="A126" s="31"/>
       <c r="B126" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C126" s="20" t="s">
+      <c r="C126" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D126" s="34" t="s">
+      <c r="D126" s="24" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="27"/>
+      <c r="A127" s="31"/>
       <c r="B127" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C127" s="21"/>
-      <c r="D127" s="31" t="s">
+      <c r="C127" s="28"/>
+      <c r="D127" s="21" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="27"/>
+      <c r="A128" s="31"/>
       <c r="B128" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C128" s="21"/>
-      <c r="D128" s="31" t="s">
+      <c r="C128" s="28"/>
+      <c r="D128" s="21" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="129" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="29"/>
+      <c r="A129" s="33"/>
       <c r="B129" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C129" s="22"/>
-      <c r="D129" s="35" t="s">
+      <c r="C129" s="29"/>
+      <c r="D129" s="25" t="s">
         <v>259</v>
       </c>
     </row>
@@ -7813,11 +14074,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C4:C11"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="A4:A24"/>
+    <mergeCell ref="C87:C93"/>
+    <mergeCell ref="C94:C100"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="C121:C125"/>
+    <mergeCell ref="C114:C120"/>
+    <mergeCell ref="C107:C113"/>
+    <mergeCell ref="C104:C106"/>
     <mergeCell ref="A25:A50"/>
     <mergeCell ref="A51:A75"/>
     <mergeCell ref="A76:A103"/>
@@ -7834,13 +14097,11 @@
     <mergeCell ref="C74:C75"/>
     <mergeCell ref="C76:C80"/>
     <mergeCell ref="C81:C86"/>
-    <mergeCell ref="C87:C93"/>
-    <mergeCell ref="C94:C100"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="C121:C125"/>
-    <mergeCell ref="C114:C120"/>
-    <mergeCell ref="C107:C113"/>
-    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="A4:A24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" display="http://www.corestandards.org/Math/Content/1/OA/A/1/"/>
@@ -7978,7 +14239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
@@ -9356,22 +15617,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:M80"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
     <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="3:13" x14ac:dyDescent="0.25">
@@ -10038,12 +16300,9 @@
         <v>410</v>
       </c>
     </row>
-    <row r="47" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="17" t="s">
-        <v>337</v>
-      </c>
       <c r="F47" s="9"/>
       <c r="G47" s="16" t="s">
         <v>355</v>
@@ -10070,10 +16329,12 @@
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
+      <c r="E49" s="17" t="s">
+        <v>337</v>
+      </c>
       <c r="F49" s="9"/>
       <c r="G49" s="16" t="s">
         <v>356</v>
@@ -10381,7 +16642,9 @@
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
+      <c r="G67" s="9" t="s">
+        <v>425</v>
+      </c>
       <c r="H67" s="9"/>
       <c r="I67" s="17" t="s">
         <v>378</v>
@@ -10647,7 +16910,7 @@
     <hyperlink ref="E41" r:id="rId61" location="CCSS.Math.Content.1.MD.A.1" display="http://www.corestandards.org/Math/Content/1/MD/ - CCSS.Math.Content.1.MD.A.1"/>
     <hyperlink ref="E42" r:id="rId62" location="CCSS.Math.Content.1.MD.A.2" display="http://www.corestandards.org/Math/Content/1/MD/ - CCSS.Math.Content.1.MD.A.2"/>
     <hyperlink ref="E46" r:id="rId63" location="CCSS.Math.Content.1.MD.B.3" display="http://www.corestandards.org/Math/Content/1/MD/ - CCSS.Math.Content.1.MD.B.3"/>
-    <hyperlink ref="E47" r:id="rId64" location="CCSS.Math.Content.1.MD.C.4" display="http://www.corestandards.org/Math/Content/1/MD/ - CCSS.Math.Content.1.MD.C.4"/>
+    <hyperlink ref="E49" r:id="rId64" location="CCSS.Math.Content.1.MD.C.4" display="http://www.corestandards.org/Math/Content/1/MD/ - CCSS.Math.Content.1.MD.C.4"/>
     <hyperlink ref="G41" r:id="rId65" location="CCSS.Math.Content.2.MD.A.1" display="http://www.corestandards.org/Math/Content/2/MD/ - CCSS.Math.Content.2.MD.A.1"/>
     <hyperlink ref="G42" r:id="rId66" location="CCSS.Math.Content.2.MD.A.2" display="http://www.corestandards.org/Math/Content/2/MD/ - CCSS.Math.Content.2.MD.A.2"/>
     <hyperlink ref="G43" r:id="rId67" location="CCSS.Math.Content.2.MD.A.3" display="http://www.corestandards.org/Math/Content/2/MD/ - CCSS.Math.Content.2.MD.A.3"/>
@@ -10713,5 +16976,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId127"/>
+  <drawing r:id="rId128"/>
 </worksheet>
 </file>